--- a/R/data/quiz241118.xlsx
+++ b/R/data/quiz241118.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3665B759-5A68-6A41-8B67-3AD22878A6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25AB733-7233-1F42-BFFA-DE1CCF547C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47360" yWindow="1360" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="260">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -665,6 +665,141 @@
   </si>
   <si>
     <t>김진구</t>
+  </si>
+  <si>
+    <t>inheo0428@gmail.com</t>
+  </si>
+  <si>
+    <t>허인</t>
+  </si>
+  <si>
+    <t>hje10314@naver.com</t>
+  </si>
+  <si>
+    <t>한지은</t>
+  </si>
+  <si>
+    <t>hm703711@gmail.com</t>
+  </si>
+  <si>
+    <t>언론방송융합미디어학과</t>
+  </si>
+  <si>
+    <t>박현민</t>
+  </si>
+  <si>
+    <t>cjc0623@naver.com</t>
+  </si>
+  <si>
+    <t>소프트웨어학과 콘텐츠IT전공</t>
+  </si>
+  <si>
+    <t>최현민</t>
+  </si>
+  <si>
+    <t>syckjjperfect9160@naver.com</t>
+  </si>
+  <si>
+    <t>송현우</t>
+  </si>
+  <si>
+    <t>slaim7888@gmail.com</t>
+  </si>
+  <si>
+    <t>이준민</t>
+  </si>
+  <si>
+    <t>20242528@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>석진영</t>
+  </si>
+  <si>
+    <t>cjh5779@naver.com</t>
+  </si>
+  <si>
+    <t>콘텐츠 IT</t>
+  </si>
+  <si>
+    <t>최정환</t>
+  </si>
+  <si>
+    <t>minseok1937@gmail.com</t>
+  </si>
+  <si>
+    <t>김민석</t>
+  </si>
+  <si>
+    <t>h20191240@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>영어영문학과</t>
+  </si>
+  <si>
+    <t>홍이래</t>
+  </si>
+  <si>
+    <t>thdwlsrud0@naver.com</t>
+  </si>
+  <si>
+    <t>송진경</t>
+  </si>
+  <si>
+    <t>kimjh1165@naver.com</t>
+  </si>
+  <si>
+    <t>김재하</t>
+  </si>
+  <si>
+    <t>leenara633@gmail.com</t>
+  </si>
+  <si>
+    <t>이나라</t>
+  </si>
+  <si>
+    <t>dlwnstjq1664@gmail.com</t>
+  </si>
+  <si>
+    <t>사회학과</t>
+  </si>
+  <si>
+    <t>이준섭</t>
+  </si>
+  <si>
+    <t>algus5661@naver.com</t>
+  </si>
+  <si>
+    <t>최미현</t>
+  </si>
+  <si>
+    <t>tjwjddn1130@gmail.com</t>
+  </si>
+  <si>
+    <t>경영학괴</t>
+  </si>
+  <si>
+    <t>서정우</t>
+  </si>
+  <si>
+    <t>bagminhyeog534@gmail.com</t>
+  </si>
+  <si>
+    <t>박민혁</t>
+  </si>
+  <si>
+    <t>detect5641@gmail.com</t>
+  </si>
+  <si>
+    <t>소프트웨어학부</t>
+  </si>
+  <si>
+    <t>이주성</t>
+  </si>
+  <si>
+    <t>pinkyeon7@gmail.com</t>
+  </si>
+  <si>
+    <t>박채연</t>
   </si>
 </sst>
 </file>
@@ -704,7 +839,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -877,11 +1012,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -914,6 +1114,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -965,7 +1181,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:Y63" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:Y82" headerRowCount="0">
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
@@ -1203,11 +1419,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y63"/>
+  <dimension ref="A1:Y82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5902,6 +6118,1414 @@
         <v>44</v>
       </c>
     </row>
+    <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="4">
+        <v>45615.489699409722</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" s="5">
+        <v>20242358</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L64" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M64" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N64" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O64" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P64" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q64" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R64" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="S64" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="T64" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U64" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V64" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W64" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X64" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="7">
+        <v>45615.505528275462</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D65" s="8">
+        <v>20222367</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J65" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K65" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M65" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N65" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O65" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P65" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q65" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R65" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S65" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T65" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U65" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V65" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W65" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y65" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="4">
+        <v>45615.528267175927</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D66" s="5">
+        <v>20202415</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L66" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M66" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N66" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O66" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P66" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q66" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R66" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="S66" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="T66" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U66" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V66" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W66" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y66" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="7">
+        <v>45615.537867824074</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D67" s="8">
+        <v>20215264</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L67" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M67" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N67" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O67" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P67" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q67" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R67" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S67" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T67" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U67" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V67" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W67" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y67" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="4">
+        <v>45615.544075370373</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D68" s="5">
+        <v>20202335</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M68" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N68" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O68" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P68" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q68" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R68" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S68" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T68" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U68" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V68" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W68" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X68" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="7">
+        <v>45615.546128969909</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D69" s="8">
+        <v>20242428</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J69" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K69" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L69" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M69" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N69" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O69" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P69" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q69" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R69" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S69" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T69" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="U69" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="V69" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W69" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y69" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="4">
+        <v>45615.558036284725</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D70" s="5">
+        <v>20242528</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L70" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M70" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N70" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O70" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P70" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q70" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R70" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="S70" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="T70" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U70" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V70" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="W70" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y70" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="7">
+        <v>45615.591638587968</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D71" s="8">
+        <v>20215262</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J71" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K71" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M71" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N71" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O71" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P71" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q71" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R71" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S71" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T71" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U71" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V71" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W71" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X71" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="4">
+        <v>45615.596383668977</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D72" s="5">
+        <v>20202915</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L72" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M72" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N72" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O72" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P72" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q72" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R72" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="S72" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T72" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U72" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V72" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W72" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y72" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="7">
+        <v>45615.64702556713</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D73" s="8">
+        <v>20191240</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J73" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K73" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L73" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M73" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N73" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O73" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P73" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q73" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R73" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S73" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T73" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U73" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V73" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W73" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y73" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="4">
+        <v>45615.670168969911</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D74" s="5">
+        <v>20182339</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L74" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M74" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N74" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O74" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P74" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q74" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R74" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S74" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T74" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U74" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V74" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W74" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y74" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="7">
+        <v>45615.673296689813</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D75" s="8">
+        <v>20193810</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J75" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K75" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L75" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M75" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N75" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O75" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P75" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q75" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R75" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="S75" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="T75" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U75" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="V75" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W75" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y75" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="4">
+        <v>45615.683013379632</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D76" s="5">
+        <v>20241065</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L76" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M76" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N76" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O76" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P76" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q76" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R76" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S76" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T76" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="U76" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V76" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W76" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y76" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="12">
+        <v>45615.732025347221</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D77" s="13">
+        <v>20202235</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H77" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I77" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J77" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K77" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L77" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M77" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N77" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O77" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="P77" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q77" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="R77" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="S77" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="T77" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="U77" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="V77" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="W77" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="X77" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y77" s="14"/>
+    </row>
+    <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="4">
+        <v>45615.74856634259</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D78" s="5">
+        <v>20242355</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L78" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M78" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N78" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O78" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P78" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q78" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R78" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S78" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T78" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U78" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V78" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W78" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y78" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="7">
+        <v>45615.758946481481</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D79" s="8">
+        <v>20213064</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J79" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K79" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L79" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M79" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N79" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O79" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P79" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q79" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R79" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="S79" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T79" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U79" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="V79" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W79" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X79" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="4">
+        <v>45615.773785798607</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D80" s="5">
+        <v>20242320</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L80" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M80" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N80" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O80" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P80" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q80" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R80" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S80" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T80" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U80" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V80" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W80" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y80" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="7">
+        <v>45615.774088182865</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D81" s="8">
+        <v>20245230</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J81" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K81" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L81" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M81" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N81" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O81" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P81" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q81" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R81" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S81" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="T81" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U81" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="V81" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W81" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X81" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="15">
+        <v>45615.797306863431</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="D82" s="16">
+        <v>20227141</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="F82" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G82" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H82" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="I82" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J82" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K82" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L82" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M82" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="N82" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="O82" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="P82" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q82" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="R82" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="S82" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="T82" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="U82" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="V82" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="W82" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="X82" s="14"/>
+      <c r="Y82" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/quiz241118.xlsx
+++ b/R/data/quiz241118.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25AB733-7233-1F42-BFFA-DE1CCF547C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4841248D-4F37-6D4A-8AA0-D08723EA43E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47360" yWindow="1360" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="353">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -800,6 +800,286 @@
   </si>
   <si>
     <t>박채연</t>
+  </si>
+  <si>
+    <t>gomdolri05@naver.com</t>
+  </si>
+  <si>
+    <t>이아영</t>
+  </si>
+  <si>
+    <t>gusquddus20@naver.com</t>
+  </si>
+  <si>
+    <t>체육학과</t>
+  </si>
+  <si>
+    <t>현병연</t>
+  </si>
+  <si>
+    <t>라. 열에 여덟명</t>
+  </si>
+  <si>
+    <t>ju0_park@naver.com</t>
+  </si>
+  <si>
+    <t>박주영</t>
+  </si>
+  <si>
+    <t>b020305@naver.com</t>
+  </si>
+  <si>
+    <t>배성진</t>
+  </si>
+  <si>
+    <t>jin050828@gmail.com</t>
+  </si>
+  <si>
+    <t>인공지능융합학부</t>
+  </si>
+  <si>
+    <t>김진영</t>
+  </si>
+  <si>
+    <t>tomas313@naver.com</t>
+  </si>
+  <si>
+    <t>라태민</t>
+  </si>
+  <si>
+    <t>herdy2154@naver.com</t>
+  </si>
+  <si>
+    <t>한녕균</t>
+  </si>
+  <si>
+    <t>yerang0917@naver.com</t>
+  </si>
+  <si>
+    <t>최예랑</t>
+  </si>
+  <si>
+    <t>ye_ji_02@naver.com</t>
+  </si>
+  <si>
+    <t>전예지</t>
+  </si>
+  <si>
+    <t>seeun1012123@naver.com</t>
+  </si>
+  <si>
+    <t>이세은</t>
+  </si>
+  <si>
+    <t>yhc0564@naver.com</t>
+  </si>
+  <si>
+    <t>경제학과</t>
+  </si>
+  <si>
+    <t>윤홍채</t>
+  </si>
+  <si>
+    <t>ism050204@naver.com</t>
+  </si>
+  <si>
+    <t>lovearamis3@gmail.com</t>
+  </si>
+  <si>
+    <t>데이터 테크</t>
+  </si>
+  <si>
+    <t>정현우</t>
+  </si>
+  <si>
+    <t>yujin31836@gmail.com</t>
+  </si>
+  <si>
+    <t>최유진</t>
+  </si>
+  <si>
+    <t>paulcho1004@naver.com</t>
+  </si>
+  <si>
+    <t>조민형</t>
+  </si>
+  <si>
+    <t>mi88368836@gmail.com</t>
+  </si>
+  <si>
+    <t>신민서</t>
+  </si>
+  <si>
+    <t>bread0808@naver.com</t>
+  </si>
+  <si>
+    <t>글로벌학부</t>
+  </si>
+  <si>
+    <t>김수민</t>
+  </si>
+  <si>
+    <t>4080jjh@gmail.com</t>
+  </si>
+  <si>
+    <t>장재환</t>
+  </si>
+  <si>
+    <t>jungha051026@naver.com</t>
+  </si>
+  <si>
+    <t>윤정하</t>
+  </si>
+  <si>
+    <t>corsica2001@naver.com</t>
+  </si>
+  <si>
+    <t>박상우</t>
+  </si>
+  <si>
+    <t>ji040414@naver.com</t>
+  </si>
+  <si>
+    <t>최윤지</t>
+  </si>
+  <si>
+    <t>efgh124@naver.com</t>
+  </si>
+  <si>
+    <t>정윤서</t>
+  </si>
+  <si>
+    <t>kth4159@gmail.com</t>
+  </si>
+  <si>
+    <t>김태희</t>
+  </si>
+  <si>
+    <t>csq11378@gmail.com</t>
+  </si>
+  <si>
+    <t>장승진</t>
+  </si>
+  <si>
+    <t>sengyu0805@gmail.com</t>
+  </si>
+  <si>
+    <t>나선아</t>
+  </si>
+  <si>
+    <t>kmmyy209@gmail.com</t>
+  </si>
+  <si>
+    <t>김명은</t>
+  </si>
+  <si>
+    <t>suji032091@naver.com</t>
+  </si>
+  <si>
+    <t>이선주</t>
+  </si>
+  <si>
+    <t>jhue0901@gmail.com</t>
+  </si>
+  <si>
+    <t>글로벌비지니스</t>
+  </si>
+  <si>
+    <t>전하율</t>
+  </si>
+  <si>
+    <t>syw050819@naver.com</t>
+  </si>
+  <si>
+    <t>신예원</t>
+  </si>
+  <si>
+    <t>lucy1004486@naver.com</t>
+  </si>
+  <si>
+    <t>김소연</t>
+  </si>
+  <si>
+    <t>kayla1071702@gmail.com</t>
+  </si>
+  <si>
+    <t>임혜빈</t>
+  </si>
+  <si>
+    <t>kingdom980201@gmail.com</t>
+  </si>
+  <si>
+    <t>언어청각학과</t>
+  </si>
+  <si>
+    <t>박성경</t>
+  </si>
+  <si>
+    <t>a68055637@gmail.com</t>
+  </si>
+  <si>
+    <t>이효민</t>
+  </si>
+  <si>
+    <t>simje9907@gmail.com</t>
+  </si>
+  <si>
+    <t>심재민</t>
+  </si>
+  <si>
+    <t>kimdongx0813@gmail.com</t>
+  </si>
+  <si>
+    <t>김동현</t>
+  </si>
+  <si>
+    <t>happyrovot88@gmail.com</t>
+  </si>
+  <si>
+    <t>김도연</t>
+  </si>
+  <si>
+    <t>appmax1115@gmail.com</t>
+  </si>
+  <si>
+    <t>이민석</t>
+  </si>
+  <si>
+    <t>eung4077@gmail.com</t>
+  </si>
+  <si>
+    <t>강은결</t>
+  </si>
+  <si>
+    <t>sinyewon921@gamail.com</t>
+  </si>
+  <si>
+    <t>050619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">신예원 </t>
+  </si>
+  <si>
+    <t>xogns3043@naver.com</t>
+  </si>
+  <si>
+    <t>디지털미디어콘텐츠</t>
+  </si>
+  <si>
+    <t>김태훈</t>
+  </si>
+  <si>
+    <t>ehgmldo2@naver.com</t>
+  </si>
+  <si>
+    <t>데이터테크</t>
+  </si>
+  <si>
+    <t>박도희</t>
+  </si>
+  <si>
+    <t>식품영양학과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -809,7 +1089,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -829,6 +1109,13 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1081,7 +1368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1122,7 +1409,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1130,6 +1416,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1181,7 +1474,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:Y82" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:Y123" headerRowCount="0">
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
@@ -1419,11 +1712,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y82"/>
+  <dimension ref="A1:Y123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7153,7 +7446,6 @@
       <c r="X77" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="Y77" s="14"/>
     </row>
     <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4">
@@ -7452,79 +7744,3113 @@
       </c>
     </row>
     <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="15">
+      <c r="A82" s="14">
         <v>45615.797306863431</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="C82" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="D82" s="16">
+      <c r="D82" s="15">
         <v>20227141</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="F82" s="16" t="s">
+      <c r="F82" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G82" s="16" t="s">
+      <c r="G82" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H82" s="16" t="s">
+      <c r="H82" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="I82" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="J82" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="K82" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="L82" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="M82" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="N82" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="O82" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="P82" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q82" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="R82" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="S82" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="T82" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="U82" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="V82" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="W82" s="16" t="s">
+      <c r="I82" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J82" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K82" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L82" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M82" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N82" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="O82" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="P82" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q82" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="R82" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="S82" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="T82" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="U82" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="V82" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="W82" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="X82" s="14"/>
-      <c r="Y82" s="17" t="s">
+      <c r="Y82" s="16" t="s">
         <v>56</v>
       </c>
+    </row>
+    <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="7">
+        <v>45615.819500914353</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D83" s="8">
+        <v>20242227</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I83" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J83" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K83" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L83" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M83" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N83" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O83" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P83" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q83" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R83" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S83" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T83" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U83" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V83" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W83" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X83" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="4">
+        <v>45615.828434131945</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D84" s="5">
+        <v>20227106</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L84" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M84" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N84" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O84" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P84" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q84" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R84" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="S84" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T84" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U84" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V84" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W84" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y84" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="7">
+        <v>45615.83327043982</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D85" s="8">
+        <v>20195170</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I85" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J85" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K85" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L85" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M85" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N85" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O85" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P85" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q85" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R85" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S85" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T85" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U85" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="V85" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W85" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y85" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="4">
+        <v>45615.862583680559</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D86" s="5">
+        <v>20212418</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L86" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M86" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N86" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O86" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P86" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q86" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R86" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S86" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T86" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U86" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V86" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W86" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X86" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="7">
+        <v>45615.884024918982</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D87" s="8">
+        <v>20246715</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I87" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J87" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K87" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L87" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M87" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N87" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O87" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P87" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q87" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R87" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S87" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T87" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U87" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V87" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="W87" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y87" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="4">
+        <v>45615.887792476853</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D88" s="5">
+        <v>20214116</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K88" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L88" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M88" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N88" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O88" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P88" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q88" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R88" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S88" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T88" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U88" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V88" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W88" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X88" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="7">
+        <v>45615.900514016204</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D89" s="8">
+        <v>20193010</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J89" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K89" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L89" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M89" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N89" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O89" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P89" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q89" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R89" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S89" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T89" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U89" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V89" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W89" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X89" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="4">
+        <v>45615.924025474538</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D90" s="5">
+        <v>20242356</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L90" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M90" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N90" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O90" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P90" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q90" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R90" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S90" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T90" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U90" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V90" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W90" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y90" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="7">
+        <v>45615.992556562502</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D91" s="8">
+        <v>20213839</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J91" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K91" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L91" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M91" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N91" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O91" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P91" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q91" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R91" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S91" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T91" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U91" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V91" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W91" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X91" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="4">
+        <v>45615.994803159723</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D92" s="5">
+        <v>20241068</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L92" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M92" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N92" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O92" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P92" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q92" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R92" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S92" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T92" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U92" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V92" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W92" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X92" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="7">
+        <v>45616.023084618057</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D93" s="8">
+        <v>20192931</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I93" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J93" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K93" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L93" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M93" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N93" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O93" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P93" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q93" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R93" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S93" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T93" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U93" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V93" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W93" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y93" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="4">
+        <v>45616.025813495369</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D94" s="5">
+        <v>20243001</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L94" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M94" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N94" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O94" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P94" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q94" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R94" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S94" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T94" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U94" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V94" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W94" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y94" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="12">
+        <v>45616.028590439819</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="D95" s="13">
+        <v>20203251</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="F95" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G95" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H95" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I95" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J95" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K95" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L95" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M95" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N95" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O95" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="P95" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q95" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="R95" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="S95" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="T95" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="U95" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="V95" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="W95" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="X95" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="4">
+        <v>45616.420158819441</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D96" s="5">
+        <v>20243961</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L96" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M96" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N96" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O96" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P96" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q96" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R96" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S96" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T96" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U96" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V96" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W96" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y96" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="7">
+        <v>45616.423861400464</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D97" s="8">
+        <v>2019336</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H97" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I97" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J97" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K97" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L97" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M97" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N97" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O97" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P97" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q97" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R97" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S97" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T97" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U97" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V97" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W97" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y97" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="4">
+        <v>45616.471139710644</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D98" s="5">
+        <v>20244126</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I98" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L98" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M98" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N98" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O98" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P98" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q98" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R98" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S98" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T98" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U98" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V98" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W98" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y98" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="7">
+        <v>45616.482677997687</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="D99" s="8">
+        <v>20246405</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I99" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J99" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K99" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L99" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M99" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N99" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O99" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P99" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q99" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R99" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S99" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T99" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U99" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V99" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W99" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y99" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="4">
+        <v>45616.543395821762</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D100" s="5">
+        <v>20182436</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I100" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K100" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L100" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M100" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N100" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O100" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P100" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q100" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R100" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S100" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T100" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U100" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V100" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W100" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X100" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="12">
+        <v>45616.545585115746</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D101" s="13">
+        <v>20245213</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="F101" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G101" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H101" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I101" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J101" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K101" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L101" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M101" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N101" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O101" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="P101" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q101" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="R101" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="S101" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="T101" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="U101" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="V101" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="W101" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="X101" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="4">
+        <v>45616.563059629625</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D102" s="5">
+        <v>20202817</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I102" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K102" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L102" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M102" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N102" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O102" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P102" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q102" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R102" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S102" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T102" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U102" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V102" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W102" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X102" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="7">
+        <v>45616.578823344906</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D103" s="8">
+        <v>20233055</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H103" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I103" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J103" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K103" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L103" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M103" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N103" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O103" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P103" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q103" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R103" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="S103" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T103" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="U103" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="V103" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="W103" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X103" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="4">
+        <v>45616.594531215276</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D104" s="5">
+        <v>20246282</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K104" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L104" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M104" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N104" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O104" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P104" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q104" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R104" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S104" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T104" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U104" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V104" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W104" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y104" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="7">
+        <v>45616.615040046294</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D105" s="8">
+        <v>20246230</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H105" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I105" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J105" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K105" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L105" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M105" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N105" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O105" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P105" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q105" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R105" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S105" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T105" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U105" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="V105" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W105" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y105" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="4">
+        <v>45616.623859872685</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D106" s="5">
+        <v>20233637</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I106" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K106" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L106" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M106" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N106" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O106" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P106" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q106" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R106" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S106" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T106" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U106" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V106" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W106" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X106" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="7">
+        <v>45616.629791956017</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D107" s="8">
+        <v>20245152</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H107" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I107" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J107" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K107" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L107" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M107" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N107" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O107" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P107" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q107" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R107" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S107" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T107" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U107" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V107" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="W107" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y107" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="4">
+        <v>45616.655638055556</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D108" s="5">
+        <v>20231602</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I108" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K108" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L108" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M108" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N108" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O108" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P108" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q108" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R108" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S108" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T108" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U108" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V108" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W108" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y108" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="7">
+        <v>45616.65847829861</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D109" s="8">
+        <v>20227157</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H109" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I109" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J109" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K109" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L109" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M109" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N109" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O109" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P109" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q109" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R109" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S109" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T109" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U109" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V109" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W109" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y109" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="14">
+        <v>45616.666755370374</v>
+      </c>
+      <c r="B110" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="D110" s="15">
+        <v>20246420</v>
+      </c>
+      <c r="E110" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="F110" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G110" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H110" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I110" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J110" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K110" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L110" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M110" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N110" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="O110" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="P110" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q110" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="R110" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="S110" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="T110" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="U110" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="V110" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="W110" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="X110" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="7">
+        <v>45616.713295196758</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D111" s="8">
+        <v>20246251</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H111" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I111" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J111" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K111" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L111" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M111" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N111" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O111" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P111" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q111" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R111" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S111" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T111" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U111" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="V111" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W111" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X111" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="4">
+        <v>45616.714295775462</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D112" s="5">
+        <v>20232512</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I112" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J112" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K112" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L112" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M112" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N112" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O112" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P112" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q112" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R112" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S112" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T112" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U112" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V112" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W112" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X112" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="12">
+        <v>45616.720000902773</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D113" s="13">
+        <v>20242347</v>
+      </c>
+      <c r="E113" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="F113" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G113" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H113" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I113" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J113" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K113" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L113" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="M113" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="N113" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O113" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="P113" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q113" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="R113" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="S113" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="T113" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="U113" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="V113" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="W113" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="X113" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="4">
+        <v>45616.738855555552</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D114" s="5">
+        <v>20243917</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I114" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J114" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K114" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L114" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M114" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N114" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O114" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P114" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q114" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R114" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S114" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T114" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U114" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V114" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W114" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y114" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="7">
+        <v>45616.74473017361</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D115" s="8">
+        <v>20241077</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H115" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I115" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J115" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K115" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L115" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M115" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N115" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O115" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P115" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q115" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="R115" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S115" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="T115" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="U115" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="V115" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W115" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X115" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="4">
+        <v>45616.749490057875</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D116" s="5">
+        <v>20242724</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I116" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J116" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K116" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L116" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M116" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N116" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O116" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P116" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q116" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R116" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S116" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T116" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U116" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V116" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W116" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X116" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="7">
+        <v>45616.765961689816</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D117" s="8">
+        <v>20182308</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H117" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I117" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J117" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K117" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L117" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M117" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N117" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O117" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P117" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q117" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R117" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S117" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="T117" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U117" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="V117" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W117" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y117" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="4">
+        <v>45616.780094097223</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D118" s="5">
+        <v>20242919</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I118" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J118" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K118" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L118" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M118" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N118" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O118" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P118" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q118" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R118" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="S118" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="T118" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U118" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="V118" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W118" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X118" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="7">
+        <v>45616.802776909724</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D119" s="8">
+        <v>20246264</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G119" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H119" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I119" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J119" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K119" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L119" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M119" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N119" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O119" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P119" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q119" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R119" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S119" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T119" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U119" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V119" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W119" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X119" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="4">
+        <v>45616.811051226847</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D120" s="5">
+        <v>20242201</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I120" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K120" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L120" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M120" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N120" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O120" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P120" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q120" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R120" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S120" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T120" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U120" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V120" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="W120" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y120" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="7">
+        <v>45616.860997986107</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="C121" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H121" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I121" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J121" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K121" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L121" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M121" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N121" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O121" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P121" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q121" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R121" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S121" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T121" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U121" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V121" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W121" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X121" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="4">
+        <v>45616.864724699073</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D122" s="5">
+        <v>20227040</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I122" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J122" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K122" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L122" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M122" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N122" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O122" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P122" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q122" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R122" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S122" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T122" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U122" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V122" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W122" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X122" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="12">
+        <v>45616.8650762037</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="C123" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="D123" s="13">
+        <v>20213219</v>
+      </c>
+      <c r="E123" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="F123" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G123" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H123" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I123" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J123" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K123" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L123" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M123" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N123" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O123" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="P123" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q123" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="R123" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="S123" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="T123" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="U123" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="V123" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="W123" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="X123" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y123" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/R/data/quiz241118.xlsx
+++ b/R/data/quiz241118.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4841248D-4F37-6D4A-8AA0-D08723EA43E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938178A9-0156-234D-8140-9CFCEC9893F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47360" yWindow="1360" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2996" uniqueCount="380">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1080,6 +1080,87 @@
   <si>
     <t>식품영양학과</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>namryumin@gmail.com</t>
+  </si>
+  <si>
+    <t>남류민</t>
+  </si>
+  <si>
+    <t>hanyeong09@naver.com</t>
+  </si>
+  <si>
+    <t>화학과</t>
+  </si>
+  <si>
+    <t>이한영</t>
+  </si>
+  <si>
+    <t>anfytlrtk3@naver.com</t>
+  </si>
+  <si>
+    <t>윤가영</t>
+  </si>
+  <si>
+    <t>ilylive999@gmail.com</t>
+  </si>
+  <si>
+    <t>이가현</t>
+  </si>
+  <si>
+    <t>915rlaalstjd@naver.com</t>
+  </si>
+  <si>
+    <t>스마트IOT</t>
+  </si>
+  <si>
+    <t>0223wltn@naver.com</t>
+  </si>
+  <si>
+    <t>홍지수</t>
+  </si>
+  <si>
+    <t>bagj11532@gmail.com</t>
+  </si>
+  <si>
+    <t>박준형</t>
+  </si>
+  <si>
+    <t>for1369@gmail.com</t>
+  </si>
+  <si>
+    <t>성동진</t>
+  </si>
+  <si>
+    <t>dltlgus1119@naver.com</t>
+  </si>
+  <si>
+    <t>이시현</t>
+  </si>
+  <si>
+    <t>dabinchoe05@gmail.com</t>
+  </si>
+  <si>
+    <t>최다빈</t>
+  </si>
+  <si>
+    <t>ginny1024@naver.com</t>
+  </si>
+  <si>
+    <t>김희원</t>
+  </si>
+  <si>
+    <t>schoe357@gmail.com</t>
+  </si>
+  <si>
+    <t>최성민</t>
+  </si>
+  <si>
+    <t>qufdldlrn@gmail.com</t>
+  </si>
+  <si>
+    <t>윤샛별</t>
   </si>
 </sst>
 </file>
@@ -1421,10 +1502,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1474,7 +1555,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:Y123" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:Y136" headerRowCount="0">
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
@@ -1712,11 +1793,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y123"/>
+  <dimension ref="A1:Y136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C122" sqref="C122"/>
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10636,7 +10717,7 @@
       <c r="B121" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="C121" s="19" t="s">
+      <c r="C121" s="18" t="s">
         <v>352</v>
       </c>
       <c r="D121" s="17" t="s">
@@ -10850,7 +10931,969 @@
       <c r="X123" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="Y123" s="18"/>
+    </row>
+    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="4">
+        <v>45616.895941435185</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D124" s="5">
+        <v>20245154</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I124" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J124" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K124" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L124" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M124" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N124" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O124" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P124" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q124" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R124" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S124" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T124" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U124" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V124" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W124" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X124" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="7">
+        <v>45616.939126805555</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="D125" s="8">
+        <v>20203423</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G125" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H125" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I125" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J125" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K125" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L125" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M125" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N125" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O125" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P125" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q125" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R125" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S125" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T125" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U125" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V125" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W125" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X125" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="4">
+        <v>45616.961981111112</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D126" s="5">
+        <v>20243830</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H126" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I126" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J126" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K126" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L126" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M126" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N126" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O126" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P126" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q126" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R126" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S126" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T126" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U126" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V126" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W126" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X126" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="7">
+        <v>45616.980180057872</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D127" s="8">
+        <v>20231621</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G127" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H127" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I127" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J127" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K127" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L127" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M127" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N127" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O127" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P127" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q127" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R127" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S127" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T127" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U127" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V127" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W127" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X127" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="4">
+        <v>45616.999000462965</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="D128" s="5">
+        <v>20205133</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H128" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I128" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J128" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K128" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L128" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M128" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N128" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O128" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P128" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q128" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R128" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S128" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T128" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U128" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V128" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W128" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X128" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="7">
+        <v>45617.004834733802</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D129" s="8">
+        <v>20243850</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G129" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H129" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I129" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J129" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K129" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L129" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M129" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N129" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O129" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P129" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q129" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R129" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S129" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T129" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U129" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V129" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W129" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X129" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="4">
+        <v>45617.012212233793</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D130" s="5">
+        <v>20244120</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H130" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I130" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J130" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K130" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L130" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M130" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N130" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O130" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P130" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q130" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R130" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="S130" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="T130" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U130" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="V130" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W130" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X130" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="7">
+        <v>45617.038424456019</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D131" s="8">
+        <v>20243921</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G131" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H131" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I131" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J131" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K131" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L131" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M131" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N131" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O131" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P131" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q131" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R131" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S131" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T131" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U131" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V131" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W131" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X131" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="4">
+        <v>45617.055625057867</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D132" s="5">
+        <v>20205226</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H132" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I132" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J132" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K132" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L132" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M132" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N132" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O132" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P132" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q132" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R132" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S132" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T132" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U132" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V132" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W132" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y132" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="7">
+        <v>45617.058633402776</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D133" s="8">
+        <v>20246780</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G133" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H133" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I133" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J133" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K133" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L133" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M133" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N133" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O133" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P133" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q133" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R133" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S133" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T133" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U133" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V133" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W133" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X133" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="4">
+        <v>45617.087443495373</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D134" s="5">
+        <v>20246233</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H134" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I134" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J134" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K134" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L134" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M134" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N134" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O134" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P134" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q134" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R134" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S134" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T134" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U134" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V134" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="W134" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X134" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="7">
+        <v>45617.097019016204</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D135" s="8">
+        <v>20246782</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G135" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H135" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I135" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J135" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K135" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L135" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M135" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N135" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O135" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P135" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q135" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R135" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S135" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T135" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U135" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V135" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W135" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X135" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="14">
+        <v>45617.148297314816</v>
+      </c>
+      <c r="B136" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="C136" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D136" s="15">
+        <v>20243929</v>
+      </c>
+      <c r="E136" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="F136" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="G136" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H136" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I136" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J136" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K136" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L136" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M136" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N136" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="O136" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="P136" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q136" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="R136" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="S136" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="T136" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="U136" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="V136" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="W136" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="X136" s="19"/>
+      <c r="Y136" s="16" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/R/data/quiz241118.xlsx
+++ b/R/data/quiz241118.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938178A9-0156-234D-8140-9CFCEC9893F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876153DC-E80F-E14F-A2C9-050B4FC2F624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47360" yWindow="1360" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2996" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4206" uniqueCount="495">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1161,6 +1161,351 @@
   </si>
   <si>
     <t>윤샛별</t>
+  </si>
+  <si>
+    <t>leesamchi0511@gmail.com</t>
+  </si>
+  <si>
+    <t>홍지민</t>
+  </si>
+  <si>
+    <t>leeyelim0320@gmail.com</t>
+  </si>
+  <si>
+    <t>이예림</t>
+  </si>
+  <si>
+    <t>blake4102@naver.com</t>
+  </si>
+  <si>
+    <t>바이오메디컬</t>
+  </si>
+  <si>
+    <t>김원래</t>
+  </si>
+  <si>
+    <t>bgm5082@gmail.com</t>
+  </si>
+  <si>
+    <t>배경민</t>
+  </si>
+  <si>
+    <t>jaehun081805@gmail.com</t>
+  </si>
+  <si>
+    <t>이재훈</t>
+  </si>
+  <si>
+    <t>gmlfkr6241@naver.com</t>
+  </si>
+  <si>
+    <t>한희락</t>
+  </si>
+  <si>
+    <t>ujeong1030@gmail.com</t>
+  </si>
+  <si>
+    <t>광고홍보학과</t>
+  </si>
+  <si>
+    <t>최유정</t>
+  </si>
+  <si>
+    <t>smainas20@naver.com</t>
+  </si>
+  <si>
+    <t>정민서</t>
+  </si>
+  <si>
+    <t>houng5011@naver.com</t>
+  </si>
+  <si>
+    <t>홍성원</t>
+  </si>
+  <si>
+    <t>il8v6u@naver.com</t>
+  </si>
+  <si>
+    <t>최윤서</t>
+  </si>
+  <si>
+    <t>gisung5864@gmail.com</t>
+  </si>
+  <si>
+    <t>조기성</t>
+  </si>
+  <si>
+    <t>a52154309@gmail.com</t>
+  </si>
+  <si>
+    <t>황우진</t>
+  </si>
+  <si>
+    <t>na1448@naver.com</t>
+  </si>
+  <si>
+    <t>강나현</t>
+  </si>
+  <si>
+    <t>dialect11111@gmail.com</t>
+  </si>
+  <si>
+    <t>최하영</t>
+  </si>
+  <si>
+    <t>creeper_a@naver.com</t>
+  </si>
+  <si>
+    <t>최대현</t>
+  </si>
+  <si>
+    <t>jjy021026@gmail.com</t>
+  </si>
+  <si>
+    <t>전지환</t>
+  </si>
+  <si>
+    <t>sf12nam@naver.com</t>
+  </si>
+  <si>
+    <t>남유정</t>
+  </si>
+  <si>
+    <t>bvc023@naver.com</t>
+  </si>
+  <si>
+    <t>김수영</t>
+  </si>
+  <si>
+    <t>kcwel1109@gmail.com</t>
+  </si>
+  <si>
+    <t>고미연</t>
+  </si>
+  <si>
+    <t>ggamy3637@naver.com</t>
+  </si>
+  <si>
+    <t>러시아학과</t>
+  </si>
+  <si>
+    <t>최효윤</t>
+  </si>
+  <si>
+    <t>johs0105@naver.com</t>
+  </si>
+  <si>
+    <t>조한신</t>
+  </si>
+  <si>
+    <t>huiju4684@naver.com</t>
+  </si>
+  <si>
+    <t>강희주</t>
+  </si>
+  <si>
+    <t>yoonbin0304@naver.com</t>
+  </si>
+  <si>
+    <t>최윤빈</t>
+  </si>
+  <si>
+    <t>csyoon1215@naver.com</t>
+  </si>
+  <si>
+    <t>천세윤</t>
+  </si>
+  <si>
+    <t>aldidrhemdgkrry123@gmail.com</t>
+  </si>
+  <si>
+    <t>김용우</t>
+  </si>
+  <si>
+    <t>2468pp@naver.com</t>
+  </si>
+  <si>
+    <t>박성빈</t>
+  </si>
+  <si>
+    <t>kate7633@naver.com</t>
+  </si>
+  <si>
+    <t>이지수</t>
+  </si>
+  <si>
+    <t>joo061222@gmail.com</t>
+  </si>
+  <si>
+    <t>강민주</t>
+  </si>
+  <si>
+    <t>youmakein@gmail.com</t>
+  </si>
+  <si>
+    <t>ms071207@naver.com</t>
+  </si>
+  <si>
+    <t>phc5120@naver.com</t>
+  </si>
+  <si>
+    <t>박희철</t>
+  </si>
+  <si>
+    <t>k1j40405@gmail.com</t>
+  </si>
+  <si>
+    <t>김진아</t>
+  </si>
+  <si>
+    <t>yhh323@naver.com</t>
+  </si>
+  <si>
+    <t>유형호</t>
+  </si>
+  <si>
+    <t>mik21366@naver.com</t>
+  </si>
+  <si>
+    <t>김수진</t>
+  </si>
+  <si>
+    <t>asrud8755@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">광고홍보학과 </t>
+  </si>
+  <si>
+    <t>김민경</t>
+  </si>
+  <si>
+    <t>rer220@naver.com</t>
+  </si>
+  <si>
+    <t>김대명</t>
+  </si>
+  <si>
+    <t>a01028349689@gmail.com</t>
+  </si>
+  <si>
+    <t>최다인</t>
+  </si>
+  <si>
+    <t>0524psu@gmail.com</t>
+  </si>
+  <si>
+    <t>박상언</t>
+  </si>
+  <si>
+    <t>limjh3027@naver.com</t>
+  </si>
+  <si>
+    <t>임종현</t>
+  </si>
+  <si>
+    <t>dlrua105@naver.com</t>
+  </si>
+  <si>
+    <t>이겸</t>
+  </si>
+  <si>
+    <t>wogh1587@naver.com</t>
+  </si>
+  <si>
+    <t>현재호</t>
+  </si>
+  <si>
+    <t>jenniferdy@naver.com</t>
+  </si>
+  <si>
+    <t>권도연</t>
+  </si>
+  <si>
+    <t>dkhong2003@gmail.com</t>
+  </si>
+  <si>
+    <t>홍다경</t>
+  </si>
+  <si>
+    <t>rlaskrud0917@naver.com</t>
+  </si>
+  <si>
+    <t>국어국문학전공</t>
+  </si>
+  <si>
+    <t>김나경</t>
+  </si>
+  <si>
+    <t>h20241207@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>문소정</t>
+  </si>
+  <si>
+    <t>ydchufd@naver.com</t>
+  </si>
+  <si>
+    <t>정유민</t>
+  </si>
+  <si>
+    <t>gyucheol0503@naver.com</t>
+  </si>
+  <si>
+    <t>홍규철</t>
+  </si>
+  <si>
+    <t>tjdrjs04@naver.com</t>
+  </si>
+  <si>
+    <t>장성건</t>
+  </si>
+  <si>
+    <t>junhyeogjang@gmail.com</t>
+  </si>
+  <si>
+    <t>반도체 디스플레이</t>
+  </si>
+  <si>
+    <t>장준혁</t>
+  </si>
+  <si>
+    <t>obbobb7@gmail.com</t>
+  </si>
+  <si>
+    <t>반도체디스플레이스쿨</t>
+  </si>
+  <si>
+    <t>구재영</t>
+  </si>
+  <si>
+    <t>chorok052150@naver.com</t>
+  </si>
+  <si>
+    <t>김미니</t>
+  </si>
+  <si>
+    <t>withhowon@gmail.com</t>
+  </si>
+  <si>
+    <t>서호원</t>
+  </si>
+  <si>
+    <t>seoeunchan5@gmail.com</t>
+  </si>
+  <si>
+    <t>서은찬</t>
+  </si>
+  <si>
+    <t>snp040609@naver.com</t>
+  </si>
+  <si>
+    <t>박세나</t>
+  </si>
+  <si>
+    <t>raon02271@naver.com</t>
+  </si>
+  <si>
+    <t>이채윤</t>
   </si>
 </sst>
 </file>
@@ -1555,7 +1900,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:Y136" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:Y191" headerRowCount="0">
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
@@ -1793,11 +2138,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y136"/>
+  <dimension ref="A1:Y191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C143" sqref="C143"/>
+      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D197" sqref="D197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11890,10 +12235,4080 @@
       <c r="W136" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="X136" s="19"/>
       <c r="Y136" s="16" t="s">
         <v>78</v>
       </c>
+    </row>
+    <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="7">
+        <v>45617.46816016204</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D137" s="8">
+        <v>20243062</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="G137" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H137" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I137" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J137" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K137" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L137" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M137" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N137" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O137" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P137" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q137" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R137" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S137" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T137" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U137" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="V137" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W137" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y137" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="4">
+        <v>45617.501125844909</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D138" s="5">
+        <v>20193633</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H138" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I138" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J138" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K138" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L138" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M138" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N138" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O138" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P138" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q138" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R138" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S138" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T138" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U138" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V138" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W138" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y138" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="7">
+        <v>45617.515039687496</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D139" s="8">
+        <v>20213609</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="F139" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G139" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H139" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I139" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J139" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K139" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L139" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M139" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N139" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O139" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P139" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q139" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R139" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S139" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T139" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U139" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V139" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W139" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y139" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="4">
+        <v>45617.54798805555</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D140" s="5">
+        <v>20222960</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H140" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I140" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J140" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K140" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L140" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M140" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N140" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O140" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P140" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q140" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R140" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S140" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T140" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U140" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="V140" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W140" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X140" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="7">
+        <v>45617.555936539356</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D141" s="8">
+        <v>20242736</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G141" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H141" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I141" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J141" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K141" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L141" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M141" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N141" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O141" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P141" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q141" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R141" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S141" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T141" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U141" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V141" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W141" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y141" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="4">
+        <v>45617.575398819448</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D142" s="5">
+        <v>20246303</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H142" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I142" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J142" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K142" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L142" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M142" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N142" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O142" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P142" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q142" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R142" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="S142" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T142" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U142" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="V142" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W142" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y142" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="7">
+        <v>45617.594749814816</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="D143" s="8">
+        <v>20232637</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G143" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H143" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I143" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J143" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K143" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L143" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M143" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N143" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O143" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P143" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q143" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R143" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S143" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T143" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U143" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="V143" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W143" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X143" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="4">
+        <v>45617.643129664357</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D144" s="5">
+        <v>20233031</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H144" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I144" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J144" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K144" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L144" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M144" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N144" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O144" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P144" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q144" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R144" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S144" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T144" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U144" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V144" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W144" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y144" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="145" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="7">
+        <v>45617.652163993058</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D145" s="8">
+        <v>20243741</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G145" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H145" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I145" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J145" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K145" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L145" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M145" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N145" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O145" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P145" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q145" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R145" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S145" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T145" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U145" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V145" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W145" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X145" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="4">
+        <v>45617.658198495366</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D146" s="5">
+        <v>20242582</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H146" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I146" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J146" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K146" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L146" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M146" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N146" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O146" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P146" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q146" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R146" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="S146" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="T146" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="U146" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V146" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W146" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X146" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="7">
+        <v>45617.661535937499</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D147" s="8">
+        <v>20216526</v>
+      </c>
+      <c r="E147" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G147" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H147" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I147" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J147" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K147" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L147" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M147" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N147" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O147" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P147" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q147" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R147" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S147" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T147" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U147" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V147" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W147" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X147" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="4">
+        <v>45617.66262456018</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D148" s="5">
+        <v>20243968</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H148" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I148" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J148" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K148" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L148" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M148" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N148" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O148" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P148" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q148" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R148" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S148" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T148" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U148" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V148" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W148" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X148" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="7">
+        <v>45617.699649212962</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D149" s="8">
+        <v>20243601</v>
+      </c>
+      <c r="E149" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="F149" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G149" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H149" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I149" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J149" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K149" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L149" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M149" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N149" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O149" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P149" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q149" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R149" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S149" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T149" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U149" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V149" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W149" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y149" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="4">
+        <v>45617.730390034718</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D150" s="5">
+        <v>20243051</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H150" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I150" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J150" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K150" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L150" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M150" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N150" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O150" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P150" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q150" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R150" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S150" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T150" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U150" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V150" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W150" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y150" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="7">
+        <v>45617.745134016208</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D151" s="8">
+        <v>20194153</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G151" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H151" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I151" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J151" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K151" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L151" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M151" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N151" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O151" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P151" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q151" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R151" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S151" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T151" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U151" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V151" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W151" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y151" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="4">
+        <v>45617.761398402778</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D152" s="5">
+        <v>20214143</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G152" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H152" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I152" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J152" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K152" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L152" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M152" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N152" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O152" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P152" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q152" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R152" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S152" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T152" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U152" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V152" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W152" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y152" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="7">
+        <v>45617.76215638889</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D153" s="8">
+        <v>20233716</v>
+      </c>
+      <c r="E153" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="F153" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G153" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H153" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I153" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J153" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K153" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L153" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M153" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N153" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O153" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P153" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q153" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R153" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S153" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T153" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U153" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="V153" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W153" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X153" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="4">
+        <v>45617.780605497683</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D154" s="5">
+        <v>20217035</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G154" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H154" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I154" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J154" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K154" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L154" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M154" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N154" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O154" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P154" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q154" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R154" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S154" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T154" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U154" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V154" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W154" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X154" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="155" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="7">
+        <v>45617.811320231485</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D155" s="8">
+        <v>20246204</v>
+      </c>
+      <c r="E155" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="F155" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G155" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H155" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I155" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J155" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K155" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L155" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M155" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N155" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O155" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P155" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q155" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R155" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S155" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T155" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U155" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V155" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W155" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X155" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="156" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="4">
+        <v>45617.860219930561</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="D156" s="5">
+        <v>20201733</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G156" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H156" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I156" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J156" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K156" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L156" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M156" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N156" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O156" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P156" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q156" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R156" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S156" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T156" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U156" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V156" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W156" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y156" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="7">
+        <v>45617.863358576389</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D157" s="8">
+        <v>20172435</v>
+      </c>
+      <c r="E157" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="F157" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G157" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H157" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I157" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J157" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K157" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L157" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M157" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N157" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O157" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P157" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q157" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R157" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S157" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T157" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U157" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="V157" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W157" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y157" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="4">
+        <v>45617.875514791667</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D158" s="5">
+        <v>20217097</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G158" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H158" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I158" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J158" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K158" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L158" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M158" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N158" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O158" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P158" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q158" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R158" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S158" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T158" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U158" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V158" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W158" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y158" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="159" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="7">
+        <v>45617.891980277782</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D159" s="8">
+        <v>20242138</v>
+      </c>
+      <c r="E159" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="F159" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G159" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H159" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I159" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J159" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K159" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L159" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M159" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N159" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O159" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P159" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q159" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R159" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S159" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T159" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U159" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V159" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W159" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X159" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="160" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="4">
+        <v>45617.995026840275</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D160" s="5">
+        <v>20246292</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G160" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H160" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I160" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J160" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K160" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L160" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M160" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N160" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O160" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P160" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q160" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R160" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S160" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T160" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U160" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V160" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W160" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X160" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="161" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="7">
+        <v>45618.00323559028</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D161" s="8">
+        <v>20241204</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="F161" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G161" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H161" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I161" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J161" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K161" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L161" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M161" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N161" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O161" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P161" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q161" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R161" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S161" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T161" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U161" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V161" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W161" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y161" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="162" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="4">
+        <v>45618.007749363431</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D162" s="5">
+        <v>20193813</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G162" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H162" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I162" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J162" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K162" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L162" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M162" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N162" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O162" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P162" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q162" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R162" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S162" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T162" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U162" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V162" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W162" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X162" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="163" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="7">
+        <v>45618.015987476851</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="D163" s="8">
+        <v>20242632</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="F163" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G163" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H163" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I163" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J163" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K163" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L163" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M163" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N163" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O163" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P163" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q163" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R163" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S163" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="T163" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="U163" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V163" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W163" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X163" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="164" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="4">
+        <v>45618.065453530093</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D164" s="5">
+        <v>20243801</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G164" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H164" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I164" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J164" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K164" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L164" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M164" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N164" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O164" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P164" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q164" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R164" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S164" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T164" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U164" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V164" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W164" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X164" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="165" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="7">
+        <v>45618.076326400464</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D165" s="8">
+        <v>20241106</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="F165" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G165" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H165" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I165" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J165" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K165" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L165" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M165" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N165" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O165" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P165" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q165" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R165" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S165" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T165" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U165" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V165" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W165" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y165" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="166" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="4">
+        <v>45618.093314143523</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D166" s="5">
+        <v>20193644</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G166" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H166" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I166" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J166" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K166" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L166" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M166" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N166" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O166" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P166" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q166" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R166" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S166" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T166" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U166" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V166" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W166" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X166" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="167" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="7">
+        <v>45618.39499912037</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D167" s="8">
+        <v>20183824</v>
+      </c>
+      <c r="E167" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="F167" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G167" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H167" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I167" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J167" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K167" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L167" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M167" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N167" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O167" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P167" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q167" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R167" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S167" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T167" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U167" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="V167" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W167" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y167" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="168" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="4">
+        <v>45618.411357476856</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D168" s="5">
+        <v>20243408</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G168" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H168" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I168" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J168" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K168" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L168" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M168" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N168" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O168" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P168" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q168" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R168" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S168" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T168" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U168" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V168" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W168" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X168" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="169" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="7">
+        <v>45618.422638344906</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D169" s="8">
+        <v>20184132</v>
+      </c>
+      <c r="E169" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F169" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G169" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H169" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I169" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J169" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K169" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L169" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M169" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N169" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O169" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P169" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q169" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R169" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="S169" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T169" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U169" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="V169" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W169" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y169" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="170" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="14">
+        <v>45618.426631944443</v>
+      </c>
+      <c r="B170" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="C170" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="D170" s="15">
+        <v>20233808</v>
+      </c>
+      <c r="E170" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="F170" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G170" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="H170" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I170" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J170" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K170" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L170" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M170" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N170" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="O170" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="P170" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q170" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="R170" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="S170" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="T170" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="U170" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="V170" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="W170" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="X170" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="171" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="7">
+        <v>45618.579936504626</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="D171" s="8">
+        <v>20222606</v>
+      </c>
+      <c r="E171" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="F171" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G171" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H171" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I171" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J171" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K171" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L171" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M171" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N171" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O171" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P171" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q171" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R171" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S171" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T171" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U171" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V171" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W171" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X171" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="172" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="4">
+        <v>45618.583631597226</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D172" s="5">
+        <v>20205124</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G172" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H172" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I172" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J172" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K172" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L172" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M172" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N172" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O172" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P172" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q172" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R172" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S172" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T172" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U172" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V172" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W172" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y172" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="173" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="7">
+        <v>45618.58435917824</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="D173" s="8">
+        <v>20242635</v>
+      </c>
+      <c r="E173" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="F173" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G173" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H173" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I173" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J173" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K173" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L173" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M173" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N173" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O173" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P173" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q173" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R173" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="S173" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T173" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U173" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="V173" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W173" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y173" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="174" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="4">
+        <v>45618.605318437505</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D174" s="5">
+        <v>20243712</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G174" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H174" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I174" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J174" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K174" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L174" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M174" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N174" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O174" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P174" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q174" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R174" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S174" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T174" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U174" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V174" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W174" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X174" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="175" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A175" s="7">
+        <v>45618.624531875001</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D175" s="8">
+        <v>20242430</v>
+      </c>
+      <c r="E175" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="F175" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G175" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H175" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I175" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J175" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K175" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L175" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M175" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N175" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O175" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P175" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q175" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R175" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="S175" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T175" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U175" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="V175" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="W175" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X175" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="176" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="4">
+        <v>45618.630617210649</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D176" s="5">
+        <v>20243236</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G176" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H176" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I176" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J176" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K176" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L176" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M176" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N176" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O176" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P176" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q176" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R176" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S176" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T176" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U176" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V176" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W176" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y176" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="177" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A177" s="7">
+        <v>45618.631332638892</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D177" s="8">
+        <v>20192366</v>
+      </c>
+      <c r="E177" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="F177" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G177" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H177" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I177" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J177" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K177" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L177" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M177" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N177" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O177" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P177" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q177" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R177" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S177" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T177" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U177" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V177" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W177" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X177" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="178" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A178" s="4">
+        <v>45618.641097222222</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D178" s="5">
+        <v>20246206</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G178" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H178" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I178" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J178" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K178" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L178" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M178" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N178" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O178" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P178" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q178" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R178" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S178" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="T178" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U178" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V178" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W178" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y178" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="179" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A179" s="7">
+        <v>45618.642395254632</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D179" s="8">
+        <v>20246305</v>
+      </c>
+      <c r="E179" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="F179" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G179" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H179" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I179" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J179" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K179" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L179" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M179" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N179" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O179" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P179" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q179" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R179" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S179" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T179" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U179" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="V179" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W179" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y179" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="180" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A180" s="4">
+        <v>45618.659280092594</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D180" s="5">
+        <v>20221005</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G180" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H180" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I180" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J180" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K180" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L180" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M180" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N180" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O180" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P180" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q180" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R180" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S180" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T180" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U180" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V180" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W180" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y180" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="181" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A181" s="7">
+        <v>45618.693312187504</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D181" s="8">
+        <v>20241207</v>
+      </c>
+      <c r="E181" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="F181" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G181" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H181" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I181" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J181" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K181" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L181" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M181" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N181" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O181" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P181" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q181" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R181" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S181" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T181" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U181" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V181" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W181" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X181" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="182" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A182" s="4">
+        <v>45618.696077766203</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D182" s="5">
+        <v>20243363</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G182" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H182" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I182" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J182" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K182" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L182" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M182" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N182" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O182" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P182" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q182" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R182" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S182" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T182" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U182" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V182" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W182" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X182" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="183" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A183" s="7">
+        <v>45618.709992407406</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D183" s="8">
+        <v>20243650</v>
+      </c>
+      <c r="E183" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="F183" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G183" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H183" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I183" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J183" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K183" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L183" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M183" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N183" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O183" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P183" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q183" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R183" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S183" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T183" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U183" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V183" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W183" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X183" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="184" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A184" s="4">
+        <v>45618.750328668983</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D184" s="5">
+        <v>20235248</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G184" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H184" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I184" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J184" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K184" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L184" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M184" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N184" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O184" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P184" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q184" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R184" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S184" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="T184" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U184" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V184" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="W184" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X184" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="185" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A185" s="7">
+        <v>45618.771620914355</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="D185" s="8">
+        <v>20193341</v>
+      </c>
+      <c r="E185" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="F185" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G185" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H185" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I185" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J185" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K185" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L185" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M185" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N185" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O185" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P185" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q185" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="R185" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="S185" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T185" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="U185" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="V185" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W185" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y185" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="186" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A186" s="4">
+        <v>45618.776570069444</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="D186" s="5">
+        <v>20193305</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="F186" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G186" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H186" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I186" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J186" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K186" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L186" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M186" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N186" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O186" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P186" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q186" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R186" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S186" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T186" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U186" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V186" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W186" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y186" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="187" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A187" s="7">
+        <v>45618.804356296299</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D187" s="8">
+        <v>20242307</v>
+      </c>
+      <c r="E187" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="F187" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G187" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H187" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I187" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J187" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K187" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L187" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M187" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N187" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O187" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P187" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q187" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="R187" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="S187" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T187" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U187" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V187" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W187" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y187" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="188" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A188" s="4">
+        <v>45618.806154247686</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D188" s="5">
+        <v>20246245</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G188" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H188" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I188" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J188" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K188" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L188" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M188" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N188" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O188" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P188" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q188" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R188" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S188" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T188" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U188" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V188" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W188" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y188" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="189" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A189" s="7">
+        <v>45618.855866342594</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D189" s="8">
+        <v>20245183</v>
+      </c>
+      <c r="E189" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="F189" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G189" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H189" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I189" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J189" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K189" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L189" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M189" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N189" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O189" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P189" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q189" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R189" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S189" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T189" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U189" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V189" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W189" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y189" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="190" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A190" s="4">
+        <v>45618.883954386576</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D190" s="5">
+        <v>20242957</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G190" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H190" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I190" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J190" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K190" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L190" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M190" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N190" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O190" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P190" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q190" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R190" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S190" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T190" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U190" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V190" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W190" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y190" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="191" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A191" s="12">
+        <v>45618.907965509265</v>
+      </c>
+      <c r="B191" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="C191" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D191" s="13">
+        <v>20233954</v>
+      </c>
+      <c r="E191" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="F191" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G191" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H191" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I191" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J191" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K191" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L191" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M191" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N191" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O191" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="P191" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q191" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="R191" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="S191" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="T191" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="U191" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="V191" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="W191" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="X191" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y191" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/R/data/quiz241118.xlsx
+++ b/R/data/quiz241118.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876153DC-E80F-E14F-A2C9-050B4FC2F624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CC86AB-90A9-4E45-8C50-6C83D76BD877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47360" yWindow="1360" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4206" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4866" uniqueCount="562">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1506,6 +1506,207 @@
   </si>
   <si>
     <t>이채윤</t>
+  </si>
+  <si>
+    <t>seungye04@naver.com</t>
+  </si>
+  <si>
+    <t>언론방송융합미디어</t>
+  </si>
+  <si>
+    <t>정승예</t>
+  </si>
+  <si>
+    <t>hhr0408@gmail.com</t>
+  </si>
+  <si>
+    <t>한혜령</t>
+  </si>
+  <si>
+    <t>tlsh1282@naver.com</t>
+  </si>
+  <si>
+    <t>융합관광경영</t>
+  </si>
+  <si>
+    <t>원세한</t>
+  </si>
+  <si>
+    <t>whrudghks030604@naver.com</t>
+  </si>
+  <si>
+    <t>조경환</t>
+  </si>
+  <si>
+    <t>sujdiamond@gmail.com</t>
+  </si>
+  <si>
+    <t>심유진</t>
+  </si>
+  <si>
+    <t>cobas67@naver.com</t>
+  </si>
+  <si>
+    <t>스마트iot</t>
+  </si>
+  <si>
+    <t>박근혁</t>
+  </si>
+  <si>
+    <t>akeb110@naver.com</t>
+  </si>
+  <si>
+    <t>김은빈</t>
+  </si>
+  <si>
+    <t>liz030404@naver.com</t>
+  </si>
+  <si>
+    <t>baeseung1211@gmail.com</t>
+  </si>
+  <si>
+    <t>콘텐츠IT전공</t>
+  </si>
+  <si>
+    <t>배승혁</t>
+  </si>
+  <si>
+    <t>khi031127@naver.com</t>
+  </si>
+  <si>
+    <t>김현일</t>
+  </si>
+  <si>
+    <t>whovian2@naver.com</t>
+  </si>
+  <si>
+    <t>이새한</t>
+  </si>
+  <si>
+    <t>20242925@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>경영학부</t>
+  </si>
+  <si>
+    <t>김민우</t>
+  </si>
+  <si>
+    <t>qaz5316qaz@naver.com</t>
+  </si>
+  <si>
+    <t>이동기</t>
+  </si>
+  <si>
+    <t>kimminseon2102@naver.com</t>
+  </si>
+  <si>
+    <t>김민선</t>
+  </si>
+  <si>
+    <t>simyenho8562@gmail.com</t>
+  </si>
+  <si>
+    <t>심연호</t>
+  </si>
+  <si>
+    <t>zmgofk1591@gmail.com</t>
+  </si>
+  <si>
+    <t>AI로봇융합</t>
+  </si>
+  <si>
+    <t>박하늘</t>
+  </si>
+  <si>
+    <t>ansk999@gmail.com</t>
+  </si>
+  <si>
+    <t>위수현</t>
+  </si>
+  <si>
+    <t>gchans0524@gmail.com</t>
+  </si>
+  <si>
+    <t>한기찬</t>
+  </si>
+  <si>
+    <t>syb00syb00@naver.com</t>
+  </si>
+  <si>
+    <t>신유비</t>
+  </si>
+  <si>
+    <t>kimguswls6685@naver.com</t>
+  </si>
+  <si>
+    <t>김현진</t>
+  </si>
+  <si>
+    <t>reasonbeans@naver.com</t>
+  </si>
+  <si>
+    <t>이유빈</t>
+  </si>
+  <si>
+    <t>wlgus4770752@naver.com</t>
+  </si>
+  <si>
+    <t>의예과</t>
+  </si>
+  <si>
+    <t>김지현</t>
+  </si>
+  <si>
+    <t>jjww74@naver.com</t>
+  </si>
+  <si>
+    <t>최재원</t>
+  </si>
+  <si>
+    <t>sin50407899@gmail.com</t>
+  </si>
+  <si>
+    <t>신재화</t>
+  </si>
+  <si>
+    <t>lucy37lucy37lucy37@naver.com</t>
+  </si>
+  <si>
+    <t>이은지</t>
+  </si>
+  <si>
+    <t>dlwl0898@naver.com</t>
+  </si>
+  <si>
+    <t>이지원</t>
+  </si>
+  <si>
+    <t>mmin121420@naver.com</t>
+  </si>
+  <si>
+    <t>김승민</t>
+  </si>
+  <si>
+    <t>ejsl5231@gmail.com</t>
+  </si>
+  <si>
+    <t>디지털미디어콘텐츠학과</t>
+  </si>
+  <si>
+    <t>이유찬</t>
+  </si>
+  <si>
+    <t>abcchocoo111@gmail.com</t>
+  </si>
+  <si>
+    <t>김기원</t>
+  </si>
+  <si>
+    <t>ye1651@naver.com</t>
+  </si>
+  <si>
+    <t>전예은</t>
   </si>
 </sst>
 </file>
@@ -1552,7 +1753,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1790,11 +1991,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1851,6 +2065,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1900,7 +2117,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:Y191" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:Y221" headerRowCount="0">
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
@@ -2138,11 +2355,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y191"/>
+  <dimension ref="A1:Y221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D197" sqref="D197"/>
+      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D224" sqref="D224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16308,7 +16525,2229 @@
       <c r="X191" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="Y191" s="19"/>
+    </row>
+    <row r="192" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A192" s="4">
+        <v>45618.940056342588</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="D192" s="5">
+        <v>20233846</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="F192" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G192" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H192" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I192" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J192" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K192" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L192" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M192" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N192" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O192" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P192" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q192" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R192" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S192" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T192" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U192" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V192" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W192" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y192" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="193" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A193" s="7">
+        <v>45619.007610000001</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D193" s="8">
+        <v>20246648</v>
+      </c>
+      <c r="E193" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="F193" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G193" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H193" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I193" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J193" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K193" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L193" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M193" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N193" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O193" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P193" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q193" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R193" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S193" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T193" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U193" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V193" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W193" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X193" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="194" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A194" s="4">
+        <v>45619.012377847219</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="D194" s="5">
+        <v>20206623</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G194" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H194" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I194" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J194" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K194" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L194" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M194" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N194" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O194" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P194" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q194" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R194" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S194" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T194" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U194" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V194" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W194" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y194" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="195" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A195" s="7">
+        <v>45619.015941539357</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D195" s="8">
+        <v>20243955</v>
+      </c>
+      <c r="E195" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="F195" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G195" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H195" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I195" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J195" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K195" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L195" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M195" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N195" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O195" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P195" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q195" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R195" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S195" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T195" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U195" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="V195" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W195" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y195" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="196" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A196" s="4">
+        <v>45619.034982858793</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D196" s="5">
+        <v>20243627</v>
+      </c>
+      <c r="E196" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="F196" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G196" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H196" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I196" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J196" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K196" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L196" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M196" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N196" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O196" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P196" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q196" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R196" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S196" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T196" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U196" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V196" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W196" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y196" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="197" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A197" s="7">
+        <v>45619.046337789347</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="D197" s="8">
+        <v>20205165</v>
+      </c>
+      <c r="E197" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="F197" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G197" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H197" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I197" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J197" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K197" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L197" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M197" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N197" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O197" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P197" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q197" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R197" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S197" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T197" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U197" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="V197" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W197" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y197" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="198" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A198" s="4">
+        <v>45619.121301145831</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="D198" s="5">
+        <v>20231708</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G198" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H198" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I198" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J198" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K198" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L198" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M198" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N198" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O198" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P198" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q198" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R198" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S198" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T198" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U198" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V198" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W198" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X198" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="199" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A199" s="12">
+        <v>45619.123317268517</v>
+      </c>
+      <c r="B199" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="C199" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D199" s="13">
+        <v>20243237</v>
+      </c>
+      <c r="E199" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="F199" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G199" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H199" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I199" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J199" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K199" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L199" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M199" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N199" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O199" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="P199" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q199" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="R199" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="S199" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="T199" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="U199" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="V199" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="W199" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="X199" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y199" s="19"/>
+    </row>
+    <row r="200" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A200" s="4">
+        <v>45619.485234791668</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="D200" s="5">
+        <v>20235179</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="F200" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G200" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H200" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I200" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J200" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K200" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L200" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M200" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N200" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O200" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P200" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q200" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R200" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S200" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T200" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U200" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V200" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W200" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X200" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="201" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A201" s="7">
+        <v>45619.491495486116</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D201" s="8">
+        <v>20246232</v>
+      </c>
+      <c r="E201" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="F201" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G201" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H201" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I201" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J201" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K201" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L201" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M201" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N201" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O201" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P201" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q201" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R201" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="S201" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T201" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U201" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="V201" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W201" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y201" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="202" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A202" s="4">
+        <v>45619.492889560184</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D202" s="5">
+        <v>20191226</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="F202" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G202" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H202" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I202" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J202" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K202" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L202" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M202" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N202" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O202" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P202" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q202" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R202" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S202" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T202" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U202" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V202" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W202" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X202" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="203" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A203" s="7">
+        <v>45619.492974733796</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="D203" s="8">
+        <v>20242925</v>
+      </c>
+      <c r="E203" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="F203" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G203" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H203" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I203" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J203" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K203" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L203" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M203" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N203" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O203" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P203" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q203" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R203" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S203" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T203" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U203" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V203" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W203" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X203" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="204" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A204" s="4">
+        <v>45619.550883541669</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D204" s="5">
+        <v>20192936</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="F204" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G204" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H204" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I204" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J204" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K204" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L204" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M204" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N204" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O204" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P204" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q204" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R204" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S204" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T204" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U204" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V204" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W204" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X204" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="205" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A205" s="7">
+        <v>45619.588835300921</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D205" s="8">
+        <v>20242707</v>
+      </c>
+      <c r="E205" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="F205" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G205" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H205" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I205" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J205" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K205" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L205" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M205" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N205" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O205" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P205" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q205" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R205" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S205" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T205" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U205" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V205" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W205" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X205" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="206" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A206" s="4">
+        <v>45619.59780106481</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D206" s="5">
+        <v>20242981</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="F206" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G206" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H206" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I206" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J206" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K206" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L206" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M206" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N206" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O206" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P206" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q206" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R206" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S206" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T206" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U206" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V206" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W206" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X206" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="207" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A207" s="7">
+        <v>45619.606366643522</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="D207" s="8">
+        <v>20216731</v>
+      </c>
+      <c r="E207" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="F207" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G207" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H207" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I207" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J207" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K207" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L207" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M207" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N207" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O207" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P207" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q207" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R207" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S207" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T207" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U207" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V207" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="W207" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X207" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="208" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A208" s="4">
+        <v>45619.616740787038</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D208" s="5">
+        <v>20202736</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="F208" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G208" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H208" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I208" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J208" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K208" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L208" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M208" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N208" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O208" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P208" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q208" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R208" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S208" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T208" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U208" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V208" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W208" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y208" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="209" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A209" s="7">
+        <v>45619.621932546295</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D209" s="8">
+        <v>20244152</v>
+      </c>
+      <c r="E209" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="F209" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G209" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H209" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I209" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J209" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K209" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L209" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M209" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N209" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O209" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P209" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q209" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R209" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S209" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T209" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U209" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V209" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W209" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X209" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="210" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A210" s="4">
+        <v>45619.622009444443</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D210" s="5">
+        <v>20234128</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="F210" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G210" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H210" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I210" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J210" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K210" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L210" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M210" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N210" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O210" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P210" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q210" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R210" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="S210" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="T210" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U210" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V210" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W210" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X210" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="211" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A211" s="12">
+        <v>45619.622267789353</v>
+      </c>
+      <c r="B211" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="C211" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="D211" s="13">
+        <v>20215144</v>
+      </c>
+      <c r="E211" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="F211" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G211" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H211" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I211" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J211" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K211" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L211" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M211" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N211" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O211" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="P211" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q211" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="R211" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="S211" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="T211" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="U211" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="V211" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="W211" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="X211" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y211" s="19"/>
+    </row>
+    <row r="212" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A212" s="4">
+        <v>45619.652676712962</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D212" s="5">
+        <v>20242339</v>
+      </c>
+      <c r="E212" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="F212" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G212" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H212" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I212" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J212" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K212" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L212" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M212" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N212" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O212" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P212" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q212" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R212" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S212" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T212" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U212" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V212" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W212" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X212" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="213" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A213" s="7">
+        <v>45619.653715011576</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="D213" s="8">
+        <v>20236121</v>
+      </c>
+      <c r="E213" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="F213" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G213" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H213" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I213" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J213" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K213" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L213" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M213" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N213" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O213" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P213" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q213" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R213" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S213" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T213" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U213" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="V213" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W213" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X213" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="214" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A214" s="4">
+        <v>45619.678549722223</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D214" s="5">
+        <v>20203055</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="F214" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G214" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H214" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I214" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J214" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K214" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L214" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M214" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N214" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O214" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P214" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q214" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R214" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S214" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T214" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U214" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V214" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W214" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y214" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="215" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A215" s="7">
+        <v>45619.685574050927</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D215" s="8">
+        <v>20202538</v>
+      </c>
+      <c r="E215" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="F215" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G215" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H215" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I215" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J215" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K215" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L215" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M215" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N215" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O215" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P215" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q215" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R215" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S215" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T215" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U215" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V215" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W215" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X215" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="216" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A216" s="4">
+        <v>45619.701397696757</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D216" s="5">
+        <v>20223010</v>
+      </c>
+      <c r="E216" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="F216" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G216" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H216" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I216" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J216" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K216" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L216" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M216" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N216" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O216" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P216" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q216" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R216" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S216" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T216" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U216" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V216" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W216" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y216" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="217" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A217" s="7">
+        <v>45619.701668715279</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D217" s="8">
+        <v>20202561</v>
+      </c>
+      <c r="E217" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="F217" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G217" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H217" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I217" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J217" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K217" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L217" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M217" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N217" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O217" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P217" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q217" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R217" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S217" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T217" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U217" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V217" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W217" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X217" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="218" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A218" s="4">
+        <v>45619.708196712963</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D218" s="5">
+        <v>20244110</v>
+      </c>
+      <c r="E218" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="F218" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G218" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H218" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I218" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J218" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K218" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L218" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M218" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N218" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O218" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P218" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q218" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R218" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S218" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T218" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U218" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V218" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W218" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X218" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="219" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A219" s="7">
+        <v>45619.720058449078</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="C219" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="D219" s="8">
+        <v>20225223</v>
+      </c>
+      <c r="E219" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="F219" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G219" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H219" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I219" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J219" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K219" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L219" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M219" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N219" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O219" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P219" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q219" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R219" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S219" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T219" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U219" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V219" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W219" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y219" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="220" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A220" s="4">
+        <v>45619.734296527778</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D220" s="5">
+        <v>20243206</v>
+      </c>
+      <c r="E220" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="F220" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G220" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H220" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I220" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J220" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K220" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L220" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M220" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N220" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O220" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P220" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q220" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R220" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S220" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T220" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U220" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V220" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W220" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X220" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="221" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A221" s="12">
+        <v>45619.745570671294</v>
+      </c>
+      <c r="B221" s="13" t="s">
+        <v>560</v>
+      </c>
+      <c r="C221" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D221" s="13">
+        <v>20243949</v>
+      </c>
+      <c r="E221" s="13" t="s">
+        <v>561</v>
+      </c>
+      <c r="F221" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G221" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H221" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I221" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J221" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K221" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L221" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M221" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N221" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O221" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="P221" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q221" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="R221" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="S221" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="T221" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="U221" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="V221" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="W221" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="X221" s="19"/>
+      <c r="Y221" s="20" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/R/data/quiz241118.xlsx
+++ b/R/data/quiz241118.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CC86AB-90A9-4E45-8C50-6C83D76BD877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2DFB7F-4A1C-3046-8EB2-925D7F58E99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47360" yWindow="1360" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4866" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5086" uniqueCount="583">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1707,6 +1707,69 @@
   </si>
   <si>
     <t>전예은</t>
+  </si>
+  <si>
+    <t>lg01022928122@gmail.com</t>
+  </si>
+  <si>
+    <t>권주용</t>
+  </si>
+  <si>
+    <t>1kdcf@naver.com</t>
+  </si>
+  <si>
+    <t>송준영</t>
+  </si>
+  <si>
+    <t>zzun1414@naver.com</t>
+  </si>
+  <si>
+    <t>반도체·디스플레이스쿨</t>
+  </si>
+  <si>
+    <t>황준영</t>
+  </si>
+  <si>
+    <t>kter0506@naver.com</t>
+  </si>
+  <si>
+    <t>김태은</t>
+  </si>
+  <si>
+    <t>wooyoomilk@naver.com</t>
+  </si>
+  <si>
+    <t>우연준</t>
+  </si>
+  <si>
+    <t>sangim041113@gmail.com</t>
+  </si>
+  <si>
+    <t>용상임</t>
+  </si>
+  <si>
+    <t>wnsrl2498@naver.com</t>
+  </si>
+  <si>
+    <t>김준기</t>
+  </si>
+  <si>
+    <t>sally200408@gmail.com</t>
+  </si>
+  <si>
+    <t>박경화</t>
+  </si>
+  <si>
+    <t>rivernine369@naver.com</t>
+  </si>
+  <si>
+    <t>강재구</t>
+  </si>
+  <si>
+    <t>wlsqhwlsqh21@naver.com</t>
+  </si>
+  <si>
+    <t>심진보</t>
   </si>
 </sst>
 </file>
@@ -2064,10 +2127,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2117,7 +2180,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:Y221" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:Y231" headerRowCount="0">
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
@@ -2355,11 +2418,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y221"/>
+  <dimension ref="A1:Y231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D224" sqref="D224"/>
+      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E237" sqref="E237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17117,7 +17180,6 @@
       <c r="X199" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="Y199" s="19"/>
     </row>
     <row r="200" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4">
@@ -18006,7 +18068,6 @@
       <c r="X211" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="Y211" s="19"/>
     </row>
     <row r="212" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4">
@@ -18744,9 +18805,749 @@
       <c r="W221" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="X221" s="19"/>
-      <c r="Y221" s="20" t="s">
+      <c r="Y221" s="19" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="222" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A222" s="4">
+        <v>45619.812250532406</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D222" s="5">
+        <v>20215109</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="F222" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G222" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H222" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I222" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J222" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K222" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L222" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M222" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N222" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O222" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P222" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q222" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R222" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S222" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T222" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U222" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V222" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W222" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y222" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="223" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A223" s="7">
+        <v>45619.81662081019</v>
+      </c>
+      <c r="B223" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="C223" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D223" s="8">
+        <v>20192901</v>
+      </c>
+      <c r="E223" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="F223" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G223" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H223" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I223" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J223" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K223" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L223" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M223" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N223" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O223" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P223" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q223" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R223" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S223" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T223" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U223" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V223" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W223" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X223" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="224" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A224" s="4">
+        <v>45619.849566539357</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="D224" s="5">
+        <v>20203352</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="F224" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G224" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H224" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I224" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J224" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K224" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L224" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M224" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N224" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O224" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P224" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q224" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R224" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S224" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T224" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U224" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V224" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W224" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X224" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="225" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A225" s="7">
+        <v>45619.856497187502</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="C225" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D225" s="8">
+        <v>20243813</v>
+      </c>
+      <c r="E225" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="F225" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G225" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H225" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I225" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J225" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K225" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L225" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M225" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N225" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O225" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P225" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q225" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R225" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S225" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T225" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U225" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V225" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W225" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y225" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="226" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A226" s="4">
+        <v>45619.861070995372</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D226" s="5">
+        <v>20242988</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="F226" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G226" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H226" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I226" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J226" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K226" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L226" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M226" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N226" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O226" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P226" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q226" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R226" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S226" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T226" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U226" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V226" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W226" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X226" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="227" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A227" s="7">
+        <v>45619.889671851852</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="C227" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D227" s="8">
+        <v>20235209</v>
+      </c>
+      <c r="E227" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="F227" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G227" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H227" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I227" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J227" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K227" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L227" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M227" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N227" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O227" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P227" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q227" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R227" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S227" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T227" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U227" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V227" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W227" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y227" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="228" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A228" s="4">
+        <v>45619.891131585653</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D228" s="5">
+        <v>20227093</v>
+      </c>
+      <c r="E228" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="F228" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G228" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H228" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I228" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J228" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K228" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L228" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M228" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N228" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O228" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P228" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q228" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R228" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="S228" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="T228" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U228" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V228" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W228" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X228" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="229" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A229" s="7">
+        <v>45619.900847013894</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="C229" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D229" s="8">
+        <v>20212818</v>
+      </c>
+      <c r="E229" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="F229" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G229" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H229" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I229" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J229" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K229" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L229" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M229" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N229" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O229" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P229" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q229" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R229" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S229" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T229" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U229" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V229" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W229" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y229" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="230" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A230" s="4">
+        <v>45619.911630196759</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D230" s="5">
+        <v>20212801</v>
+      </c>
+      <c r="E230" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="F230" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G230" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H230" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I230" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J230" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K230" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L230" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M230" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N230" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O230" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P230" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q230" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R230" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S230" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T230" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U230" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V230" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="W230" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y230" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="231" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A231" s="12">
+        <v>45619.912108067132</v>
+      </c>
+      <c r="B231" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="C231" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="D231" s="13">
+        <v>20242982</v>
+      </c>
+      <c r="E231" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="F231" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G231" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H231" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I231" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J231" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K231" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L231" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M231" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N231" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O231" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="P231" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q231" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="R231" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="S231" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="T231" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="U231" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="V231" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="W231" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="X231" s="20"/>
+      <c r="Y231" s="19" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz241118.xlsx
+++ b/R/data/quiz241118.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2DFB7F-4A1C-3046-8EB2-925D7F58E99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3199D43-62E8-8146-A43B-2BE5844610AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47360" yWindow="1360" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5086" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5372" uniqueCount="609">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1770,6 +1770,84 @@
   </si>
   <si>
     <t>심진보</t>
+  </si>
+  <si>
+    <t>tqwquqqi@naver.com</t>
+  </si>
+  <si>
+    <t>강하늘</t>
+  </si>
+  <si>
+    <t>cgim2421@gmail.com</t>
+  </si>
+  <si>
+    <t>김채윤</t>
+  </si>
+  <si>
+    <t>cjfghksznszns1100119@naver.com</t>
+  </si>
+  <si>
+    <t>유철환</t>
+  </si>
+  <si>
+    <t>pumo2928@gmail.com</t>
+  </si>
+  <si>
+    <t>빅데이터학과</t>
+  </si>
+  <si>
+    <t>yumi0901gami@gmail.com</t>
+  </si>
+  <si>
+    <t>y5het3e@naver.com</t>
+  </si>
+  <si>
+    <t>박재근</t>
+  </si>
+  <si>
+    <t>ryul1128@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">식품영양학과 </t>
+  </si>
+  <si>
+    <t>김률아</t>
+  </si>
+  <si>
+    <t>p20236727@gmail.com</t>
+  </si>
+  <si>
+    <t>박진서</t>
+  </si>
+  <si>
+    <t>eunse051013@naver.com</t>
+  </si>
+  <si>
+    <t>김은세</t>
+  </si>
+  <si>
+    <t>alyssa3257@naver.com</t>
+  </si>
+  <si>
+    <t>전영주</t>
+  </si>
+  <si>
+    <t>uhan0802@gmail.com</t>
+  </si>
+  <si>
+    <t>이유한</t>
+  </si>
+  <si>
+    <t>jmkkom@naver.com</t>
+  </si>
+  <si>
+    <t>전민균</t>
+  </si>
+  <si>
+    <t>leedug87@gmail.com</t>
+  </si>
+  <si>
+    <t>이두현</t>
   </si>
 </sst>
 </file>
@@ -2180,7 +2258,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:Y231" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:Y244" headerRowCount="0">
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
@@ -2418,11 +2496,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y231"/>
+  <dimension ref="A1:Y244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E237" sqref="E237"/>
+      <pane ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D251" sqref="D251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -19545,8 +19623,970 @@
       <c r="W231" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="X231" s="20"/>
       <c r="Y231" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="232" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A232" s="4">
+        <v>45619.96615821759</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D232" s="5">
+        <v>20222905</v>
+      </c>
+      <c r="E232" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="F232" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G232" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H232" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I232" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J232" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K232" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L232" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M232" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N232" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O232" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P232" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q232" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R232" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S232" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T232" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U232" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V232" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W232" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y232" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="233" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A233" s="7">
+        <v>45619.974609895835</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="C233" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D233" s="8">
+        <v>20241517</v>
+      </c>
+      <c r="E233" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="F233" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G233" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H233" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I233" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J233" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K233" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L233" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M233" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N233" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O233" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P233" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q233" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="R233" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S233" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T233" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="U233" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="V233" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="W233" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X233" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="234" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A234" s="4">
+        <v>45619.984649409722</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D234" s="5">
+        <v>20243829</v>
+      </c>
+      <c r="E234" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="F234" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G234" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H234" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I234" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J234" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K234" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L234" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M234" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N234" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O234" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P234" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q234" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R234" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S234" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T234" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U234" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V234" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W234" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y234" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="235" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A235" s="7">
+        <v>45619.989447777778</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="C235" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="D235" s="8">
+        <v>20232527</v>
+      </c>
+      <c r="E235" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="F235" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G235" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H235" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I235" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J235" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K235" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L235" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M235" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N235" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O235" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P235" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q235" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R235" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S235" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T235" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U235" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V235" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W235" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y235" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="236" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A236" s="4">
+        <v>45619.996053090275</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D236" s="5">
+        <v>20241515</v>
+      </c>
+      <c r="E236" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F236" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G236" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H236" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I236" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J236" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K236" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L236" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M236" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N236" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O236" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P236" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q236" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R236" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="S236" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="T236" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U236" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="V236" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W236" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y236" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="237" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A237" s="7">
+        <v>45620.005651157408</v>
+      </c>
+      <c r="B237" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="C237" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D237" s="8">
+        <v>20215158</v>
+      </c>
+      <c r="E237" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="F237" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G237" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H237" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I237" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J237" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K237" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L237" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M237" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N237" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O237" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P237" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q237" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R237" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S237" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T237" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U237" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V237" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W237" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y237" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="238" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A238" s="4">
+        <v>45620.045462974536</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="D238" s="5">
+        <v>20243806</v>
+      </c>
+      <c r="E238" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="F238" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G238" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H238" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I238" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J238" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K238" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L238" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M238" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N238" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O238" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P238" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q238" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R238" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S238" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T238" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U238" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V238" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W238" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X238" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="239" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A239" s="7">
+        <v>45620.055713344904</v>
+      </c>
+      <c r="B239" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="C239" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D239" s="8">
+        <v>20236727</v>
+      </c>
+      <c r="E239" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="F239" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G239" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H239" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I239" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J239" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K239" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L239" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M239" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N239" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O239" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P239" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q239" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R239" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S239" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T239" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U239" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V239" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W239" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X239" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="240" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A240" s="4">
+        <v>45620.117436643515</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D240" s="5">
+        <v>20246225</v>
+      </c>
+      <c r="E240" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="F240" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G240" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H240" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I240" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J240" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K240" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L240" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M240" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N240" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O240" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P240" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q240" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R240" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S240" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T240" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U240" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V240" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W240" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y240" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="241" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A241" s="7">
+        <v>45620.144211203704</v>
+      </c>
+      <c r="B241" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="C241" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D241" s="8">
+        <v>20246279</v>
+      </c>
+      <c r="E241" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="F241" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G241" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H241" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I241" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J241" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K241" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L241" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M241" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N241" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O241" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P241" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q241" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R241" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S241" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T241" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U241" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V241" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W241" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y241" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="242" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A242" s="4">
+        <v>45620.144536342588</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D242" s="5">
+        <v>20212555</v>
+      </c>
+      <c r="E242" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="F242" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G242" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H242" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I242" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J242" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K242" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L242" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M242" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N242" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O242" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P242" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q242" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R242" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S242" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T242" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U242" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V242" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W242" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y242" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="243" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A243" s="7">
+        <v>45620.148740763892</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="C243" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="D243" s="8">
+        <v>20203425</v>
+      </c>
+      <c r="E243" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="F243" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G243" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H243" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I243" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J243" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K243" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L243" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M243" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N243" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O243" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P243" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q243" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R243" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S243" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T243" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U243" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V243" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W243" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X243" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="244" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A244" s="14">
+        <v>45620.213677326392</v>
+      </c>
+      <c r="B244" s="15" t="s">
+        <v>607</v>
+      </c>
+      <c r="C244" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D244" s="15">
+        <v>20231623</v>
+      </c>
+      <c r="E244" s="15" t="s">
+        <v>608</v>
+      </c>
+      <c r="F244" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G244" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H244" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I244" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J244" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K244" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L244" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="M244" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="N244" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="O244" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="P244" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q244" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="R244" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="S244" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="T244" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="U244" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="V244" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="W244" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="X244" s="20"/>
+      <c r="Y244" s="16" t="s">
         <v>56</v>
       </c>
     </row>

--- a/R/data/quiz241118.xlsx
+++ b/R/data/quiz241118.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3199D43-62E8-8146-A43B-2BE5844610AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95F2F9E-C784-1D49-B808-357AF6B46A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47360" yWindow="1360" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5372" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6868" uniqueCount="750">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1848,6 +1848,429 @@
   </si>
   <si>
     <t>이두현</t>
+  </si>
+  <si>
+    <t>donghyun6652@gmail.com</t>
+  </si>
+  <si>
+    <t>한동현</t>
+  </si>
+  <si>
+    <t>leedowon567@naver.com</t>
+  </si>
+  <si>
+    <t>이도원</t>
+  </si>
+  <si>
+    <t>peony.chung04@gmail.com</t>
+  </si>
+  <si>
+    <t>러시아</t>
+  </si>
+  <si>
+    <t>정수영</t>
+  </si>
+  <si>
+    <t>awinni@naver.com</t>
+  </si>
+  <si>
+    <t>우현진</t>
+  </si>
+  <si>
+    <t>ataraxia050508@naver.com</t>
+  </si>
+  <si>
+    <t>박정호</t>
+  </si>
+  <si>
+    <t>nyj7013@naver.com</t>
+  </si>
+  <si>
+    <t>노예진</t>
+  </si>
+  <si>
+    <t>aone7537@naver.com</t>
+  </si>
+  <si>
+    <t>박현진</t>
+  </si>
+  <si>
+    <t>sws62550100@gmail.com</t>
+  </si>
+  <si>
+    <t>서우성</t>
+  </si>
+  <si>
+    <t>whalsrl124@naver.com</t>
+  </si>
+  <si>
+    <t>조민기</t>
+  </si>
+  <si>
+    <t>ella2005710@gmail.com</t>
+  </si>
+  <si>
+    <t>김송이</t>
+  </si>
+  <si>
+    <t>dbdud123456@gmail.com</t>
+  </si>
+  <si>
+    <t>원유영</t>
+  </si>
+  <si>
+    <t>marlboroe53@naver.com</t>
+  </si>
+  <si>
+    <t>twenty__dec@naver.com</t>
+  </si>
+  <si>
+    <t>채희주</t>
+  </si>
+  <si>
+    <t>t01094887068@gmail.com</t>
+  </si>
+  <si>
+    <t>손민재</t>
+  </si>
+  <si>
+    <t>his86814189@gmail.com</t>
+  </si>
+  <si>
+    <t>융합과학수사학과</t>
+  </si>
+  <si>
+    <t>황인성</t>
+  </si>
+  <si>
+    <t>sshee718@gmail.com</t>
+  </si>
+  <si>
+    <t>권도운</t>
+  </si>
+  <si>
+    <t>dbsduwls691@naver.com</t>
+  </si>
+  <si>
+    <t>윤여진</t>
+  </si>
+  <si>
+    <t>dydwndus1115@naver.com</t>
+  </si>
+  <si>
+    <t>용주연</t>
+  </si>
+  <si>
+    <t>gangjunu@naver.com</t>
+  </si>
+  <si>
+    <t>강준우</t>
+  </si>
+  <si>
+    <t>joyang4777@gmail.com</t>
+  </si>
+  <si>
+    <t>함현아</t>
+  </si>
+  <si>
+    <t>shasha4321@naver.com</t>
+  </si>
+  <si>
+    <t>정다영</t>
+  </si>
+  <si>
+    <t>minjeongkim329@gmail.com</t>
+  </si>
+  <si>
+    <t>간호</t>
+  </si>
+  <si>
+    <t>김민정</t>
+  </si>
+  <si>
+    <t>ncu11069@naver.com</t>
+  </si>
+  <si>
+    <t>이규민</t>
+  </si>
+  <si>
+    <t>20182346@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>이용재</t>
+  </si>
+  <si>
+    <t>guj2205146@gmail.com</t>
+  </si>
+  <si>
+    <t>강의주</t>
+  </si>
+  <si>
+    <t>ghksltjrl@naver.com</t>
+  </si>
+  <si>
+    <t>이용환</t>
+  </si>
+  <si>
+    <t>kokoung12@naver.com</t>
+  </si>
+  <si>
+    <t>권호영</t>
+  </si>
+  <si>
+    <t>dudwndi09@naver.com</t>
+  </si>
+  <si>
+    <t>권영주</t>
+  </si>
+  <si>
+    <t>yssong1919@naver.com</t>
+  </si>
+  <si>
+    <t>송예상</t>
+  </si>
+  <si>
+    <t>smarthulk0318@naver.com</t>
+  </si>
+  <si>
+    <t>조성민</t>
+  </si>
+  <si>
+    <t>minchan6020@gmail.com</t>
+  </si>
+  <si>
+    <t>김민찬</t>
+  </si>
+  <si>
+    <t>wtbaa33@naver.com</t>
+  </si>
+  <si>
+    <t>김민교</t>
+  </si>
+  <si>
+    <t>ab47cd32@gmail.com</t>
+  </si>
+  <si>
+    <t>우로겸</t>
+  </si>
+  <si>
+    <t>qkfdmltls@naver.com</t>
+  </si>
+  <si>
+    <t>조혜람</t>
+  </si>
+  <si>
+    <t>yxnjxn0331@gmail.com</t>
+  </si>
+  <si>
+    <t>배윤진</t>
+  </si>
+  <si>
+    <t>tjtkdwns0909@naver.com</t>
+  </si>
+  <si>
+    <t>서상준</t>
+  </si>
+  <si>
+    <t>parkjinseo23@naver.com</t>
+  </si>
+  <si>
+    <t>chjames2005@naver.com</t>
+  </si>
+  <si>
+    <t>최재현</t>
+  </si>
+  <si>
+    <t>yongwoo7701@gmail.com</t>
+  </si>
+  <si>
+    <t>유용우</t>
+  </si>
+  <si>
+    <t>jw010705@naver.com</t>
+  </si>
+  <si>
+    <t>유정우</t>
+  </si>
+  <si>
+    <t>obokboki@naver.com</t>
+  </si>
+  <si>
+    <t>최서윤</t>
+  </si>
+  <si>
+    <t>oys55735@gmail.com</t>
+  </si>
+  <si>
+    <t>오윤서</t>
+  </si>
+  <si>
+    <t>alsco92001@gmail.com</t>
+  </si>
+  <si>
+    <t>소프트웨어</t>
+  </si>
+  <si>
+    <t>오민채</t>
+  </si>
+  <si>
+    <t>ekzkdi12@naver.com</t>
+  </si>
+  <si>
+    <t>박정민</t>
+  </si>
+  <si>
+    <t>mire030503@gmail.com</t>
+  </si>
+  <si>
+    <t>김원형</t>
+  </si>
+  <si>
+    <t>baeksa01@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>서휘도</t>
+  </si>
+  <si>
+    <t>lion5166@naver.com</t>
+  </si>
+  <si>
+    <t>김정연</t>
+  </si>
+  <si>
+    <t>kbi70722@gmail.com</t>
+  </si>
+  <si>
+    <t>김병일</t>
+  </si>
+  <si>
+    <t>dayae6762@naver.com</t>
+  </si>
+  <si>
+    <t>장다예</t>
+  </si>
+  <si>
+    <t>opkl52@naver.com</t>
+  </si>
+  <si>
+    <t>유승미</t>
+  </si>
+  <si>
+    <t>pdh9467472@gmail.com</t>
+  </si>
+  <si>
+    <t>법</t>
+  </si>
+  <si>
+    <t>박두환</t>
+  </si>
+  <si>
+    <t>ksj101710@naver.com</t>
+  </si>
+  <si>
+    <t>김경록</t>
+  </si>
+  <si>
+    <t>thwls5541@gmail.com</t>
+  </si>
+  <si>
+    <t>김소원</t>
+  </si>
+  <si>
+    <t>8428kyn@naver.com</t>
+  </si>
+  <si>
+    <t>김예나</t>
+  </si>
+  <si>
+    <t>kwonseoyoung0923@gmail.com</t>
+  </si>
+  <si>
+    <t>권서영</t>
+  </si>
+  <si>
+    <t>junsa215909@naver.com</t>
+  </si>
+  <si>
+    <t>이승준</t>
+  </si>
+  <si>
+    <t>5tmddk@naver.com</t>
+  </si>
+  <si>
+    <t>최승아</t>
+  </si>
+  <si>
+    <t>sehyeon0330@naver.com</t>
+  </si>
+  <si>
+    <t>김세현</t>
+  </si>
+  <si>
+    <t>seostone1018@gmail.com</t>
+  </si>
+  <si>
+    <t>서준석</t>
+  </si>
+  <si>
+    <t>raon2812@naver.com</t>
+  </si>
+  <si>
+    <t>최라온</t>
+  </si>
+  <si>
+    <t>hyeonjin0976@gmail.com</t>
+  </si>
+  <si>
+    <t>류현진</t>
+  </si>
+  <si>
+    <t>chsmdfur123@naver.com</t>
+  </si>
+  <si>
+    <t>금융재무</t>
+  </si>
+  <si>
+    <t>이한얼</t>
+  </si>
+  <si>
+    <t>youngold057@gmail.com</t>
+  </si>
+  <si>
+    <t>윤태영</t>
+  </si>
+  <si>
+    <t>tigerhaha1@naver.com</t>
+  </si>
+  <si>
+    <t>김민호</t>
+  </si>
+  <si>
+    <t>chiyoon12@gmail.com</t>
+  </si>
+  <si>
+    <t>김치윤</t>
+  </si>
+  <si>
+    <t>cheun0423@gmail.com</t>
+  </si>
+  <si>
+    <t>빅데이터과</t>
+  </si>
+  <si>
+    <t>이채은</t>
+  </si>
+  <si>
+    <t>pjy35870859@gmail.com</t>
+  </si>
+  <si>
+    <t>박지연</t>
+  </si>
+  <si>
+    <t>dlaehdghks123@gmail.com</t>
+  </si>
+  <si>
+    <t>임동환</t>
   </si>
 </sst>
 </file>
@@ -2258,7 +2681,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:Y244" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:Y312" headerRowCount="0">
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
@@ -2496,11 +2919,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y244"/>
+  <dimension ref="A1:Y312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D251" sqref="D251"/>
+      <pane ySplit="1" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E318" sqref="E318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -20585,9 +21008,5041 @@
       <c r="W244" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="X244" s="20"/>
       <c r="Y244" s="16" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="245" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A245" s="7">
+        <v>45620.331349386572</v>
+      </c>
+      <c r="B245" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="C245" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D245" s="8">
+        <v>20246300</v>
+      </c>
+      <c r="E245" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="F245" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G245" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H245" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I245" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J245" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K245" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L245" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M245" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N245" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O245" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P245" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q245" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R245" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S245" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T245" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U245" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V245" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="W245" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X245" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="246" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A246" s="4">
+        <v>45620.421590474536</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D246" s="5">
+        <v>20211625</v>
+      </c>
+      <c r="E246" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="F246" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G246" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H246" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I246" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J246" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K246" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L246" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M246" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N246" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O246" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P246" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q246" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R246" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S246" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T246" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U246" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V246" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W246" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y246" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="247" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A247" s="7">
+        <v>45620.43650703704</v>
+      </c>
+      <c r="B247" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="C247" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="D247" s="8">
+        <v>20241728</v>
+      </c>
+      <c r="E247" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="F247" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G247" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H247" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I247" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J247" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K247" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L247" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M247" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N247" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O247" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P247" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q247" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R247" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S247" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T247" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U247" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V247" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W247" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X247" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="248" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A248" s="4">
+        <v>45620.477563865745</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D248" s="5">
+        <v>20245207</v>
+      </c>
+      <c r="E248" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="F248" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G248" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H248" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I248" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J248" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K248" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L248" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M248" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N248" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O248" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P248" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q248" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R248" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S248" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T248" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U248" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V248" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W248" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X248" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="249" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A249" s="7">
+        <v>45620.495695659723</v>
+      </c>
+      <c r="B249" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="C249" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D249" s="8">
+        <v>20242118</v>
+      </c>
+      <c r="E249" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="F249" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G249" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H249" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I249" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J249" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K249" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L249" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M249" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N249" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O249" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P249" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q249" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R249" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S249" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T249" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U249" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="V249" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W249" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y249" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="250" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A250" s="4">
+        <v>45620.503679062502</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D250" s="5">
+        <v>20246235</v>
+      </c>
+      <c r="E250" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="F250" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G250" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H250" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I250" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J250" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K250" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L250" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M250" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N250" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O250" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P250" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q250" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R250" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S250" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T250" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U250" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V250" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W250" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X250" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="251" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A251" s="7">
+        <v>45620.504185011574</v>
+      </c>
+      <c r="B251" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="C251" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D251" s="8">
+        <v>20246241</v>
+      </c>
+      <c r="E251" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="F251" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G251" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H251" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I251" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J251" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K251" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L251" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M251" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N251" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O251" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P251" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q251" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R251" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S251" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="T251" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="U251" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="V251" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="W251" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X251" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="252" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A252" s="4">
+        <v>45620.516660219902</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D252" s="5">
+        <v>20227036</v>
+      </c>
+      <c r="E252" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="F252" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G252" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H252" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I252" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J252" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K252" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L252" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M252" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N252" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O252" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P252" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q252" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R252" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="S252" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T252" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U252" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="V252" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W252" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y252" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="253" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A253" s="7">
+        <v>45620.533189178241</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="C253" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D253" s="8">
+        <v>20192986</v>
+      </c>
+      <c r="E253" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="F253" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G253" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H253" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I253" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J253" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K253" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L253" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M253" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N253" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O253" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P253" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q253" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R253" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S253" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T253" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U253" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="V253" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W253" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y253" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="254" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A254" s="4">
+        <v>45620.533552175926</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D254" s="5">
+        <v>20246222</v>
+      </c>
+      <c r="E254" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="F254" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G254" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H254" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I254" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J254" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K254" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L254" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M254" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N254" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O254" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P254" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q254" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R254" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S254" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T254" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U254" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V254" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W254" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y254" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="255" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A255" s="7">
+        <v>45620.535861805554</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="C255" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D255" s="8">
+        <v>20207089</v>
+      </c>
+      <c r="E255" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="F255" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G255" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H255" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I255" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J255" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K255" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L255" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M255" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N255" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O255" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P255" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q255" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R255" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="S255" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="T255" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="U255" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="V255" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W255" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X255" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="256" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A256" s="4">
+        <v>45620.57434118056</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="D256" s="5">
+        <v>20203302</v>
+      </c>
+      <c r="E256" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="F256" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G256" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H256" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I256" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J256" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K256" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L256" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M256" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N256" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O256" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P256" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q256" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R256" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S256" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T256" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U256" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V256" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W256" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y256" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="257" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A257" s="7">
+        <v>45620.595396319448</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="C257" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D257" s="8">
+        <v>20243959</v>
+      </c>
+      <c r="E257" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="F257" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G257" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H257" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I257" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J257" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K257" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L257" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M257" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N257" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O257" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P257" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q257" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R257" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S257" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T257" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U257" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="V257" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="W257" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y257" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="258" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A258" s="4">
+        <v>45620.605445844907</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D258" s="5">
+        <v>20242122</v>
+      </c>
+      <c r="E258" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="F258" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G258" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H258" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I258" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J258" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K258" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L258" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M258" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N258" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O258" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P258" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q258" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R258" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="S258" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T258" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="U258" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V258" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="W258" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y258" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="259" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A259" s="7">
+        <v>45620.619369826389</v>
+      </c>
+      <c r="B259" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="C259" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="D259" s="8">
+        <v>20246942</v>
+      </c>
+      <c r="E259" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="F259" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G259" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H259" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I259" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J259" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K259" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L259" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M259" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N259" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O259" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P259" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q259" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="R259" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S259" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T259" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="U259" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="V259" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W259" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X259" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="260" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A260" s="4">
+        <v>45620.63282875</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D260" s="5">
+        <v>20243702</v>
+      </c>
+      <c r="E260" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="F260" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G260" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H260" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I260" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J260" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K260" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L260" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M260" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N260" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O260" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P260" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q260" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R260" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S260" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T260" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U260" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V260" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W260" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y260" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="261" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A261" s="7">
+        <v>45620.634526064816</v>
+      </c>
+      <c r="B261" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="C261" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D261" s="8">
+        <v>20191623</v>
+      </c>
+      <c r="E261" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="F261" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G261" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H261" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I261" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J261" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K261" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L261" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M261" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N261" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O261" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P261" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q261" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R261" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S261" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T261" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U261" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="V261" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W261" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X261" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="262" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A262" s="4">
+        <v>45620.639882951393</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D262" s="5">
+        <v>20243723</v>
+      </c>
+      <c r="E262" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="F262" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G262" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H262" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I262" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J262" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K262" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L262" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M262" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N262" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O262" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P262" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q262" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R262" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S262" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T262" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U262" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V262" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W262" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y262" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="263" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A263" s="7">
+        <v>45620.682537592591</v>
+      </c>
+      <c r="B263" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="C263" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D263" s="8">
+        <v>20242901</v>
+      </c>
+      <c r="E263" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="F263" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G263" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H263" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I263" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J263" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K263" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L263" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M263" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N263" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O263" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P263" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q263" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R263" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S263" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T263" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U263" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V263" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W263" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X263" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="264" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A264" s="4">
+        <v>45620.698074479165</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D264" s="5">
+        <v>20243432</v>
+      </c>
+      <c r="E264" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="F264" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G264" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H264" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I264" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J264" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K264" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L264" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M264" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N264" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O264" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P264" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q264" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R264" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S264" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T264" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U264" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V264" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W264" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X264" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="265" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A265" s="7">
+        <v>45620.704123506948</v>
+      </c>
+      <c r="B265" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="C265" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D265" s="8">
+        <v>20213035</v>
+      </c>
+      <c r="E265" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="F265" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G265" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H265" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I265" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J265" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K265" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L265" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M265" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N265" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O265" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P265" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q265" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R265" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S265" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T265" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U265" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="V265" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W265" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y265" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="266" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A266" s="4">
+        <v>45620.706156354165</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="D266" s="5">
+        <v>20246218</v>
+      </c>
+      <c r="E266" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="F266" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G266" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H266" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I266" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J266" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K266" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L266" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M266" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N266" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O266" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P266" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q266" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R266" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S266" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T266" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U266" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V266" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W266" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X266" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="267" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A267" s="7">
+        <v>45620.706332222224</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="C267" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D267" s="8">
+        <v>20231622</v>
+      </c>
+      <c r="E267" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="F267" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G267" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H267" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I267" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J267" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K267" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L267" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M267" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N267" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O267" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P267" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q267" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R267" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S267" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T267" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U267" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V267" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W267" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X267" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="268" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A268" s="4">
+        <v>45620.720254467597</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D268" s="5">
+        <v>20182346</v>
+      </c>
+      <c r="E268" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="F268" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G268" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H268" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I268" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J268" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K268" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L268" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M268" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N268" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O268" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P268" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q268" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R268" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S268" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T268" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U268" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V268" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W268" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X268" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="269" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A269" s="7">
+        <v>45620.724650787037</v>
+      </c>
+      <c r="B269" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="C269" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D269" s="8">
+        <v>20242101</v>
+      </c>
+      <c r="E269" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="F269" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G269" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H269" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I269" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J269" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K269" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L269" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M269" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N269" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O269" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P269" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q269" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R269" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S269" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T269" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U269" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="V269" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W269" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y269" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="270" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A270" s="4">
+        <v>45620.72818878472</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D270" s="5">
+        <v>20215212</v>
+      </c>
+      <c r="E270" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="F270" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G270" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H270" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I270" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J270" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K270" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L270" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M270" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N270" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O270" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P270" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q270" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R270" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S270" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T270" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U270" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V270" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W270" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y270" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="271" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A271" s="7">
+        <v>45620.736154479164</v>
+      </c>
+      <c r="B271" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="C271" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D271" s="8">
+        <v>20202911</v>
+      </c>
+      <c r="E271" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="F271" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G271" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H271" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I271" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J271" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K271" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L271" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M271" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N271" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O271" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="P271" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q271" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="R271" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S271" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T271" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U271" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="V271" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="W271" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X271" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="272" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A272" s="4">
+        <v>45620.741449340276</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="D272" s="5">
+        <v>20212603</v>
+      </c>
+      <c r="E272" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="F272" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G272" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H272" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I272" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J272" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K272" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L272" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M272" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N272" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O272" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P272" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q272" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R272" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S272" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T272" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U272" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V272" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W272" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X272" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="273" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A273" s="7">
+        <v>45620.741835960653</v>
+      </c>
+      <c r="B273" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="C273" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D273" s="8">
+        <v>20227078</v>
+      </c>
+      <c r="E273" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="F273" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G273" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H273" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I273" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J273" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K273" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L273" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M273" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N273" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O273" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P273" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q273" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R273" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S273" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T273" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U273" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V273" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W273" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X273" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="274" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A274" s="4">
+        <v>45620.746971377317</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D274" s="5">
+        <v>20241095</v>
+      </c>
+      <c r="E274" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="F274" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G274" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H274" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I274" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J274" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K274" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L274" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M274" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N274" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O274" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P274" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q274" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R274" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S274" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T274" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U274" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V274" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W274" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y274" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="275" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A275" s="7">
+        <v>45620.756076296297</v>
+      </c>
+      <c r="B275" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="C275" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D275" s="8">
+        <v>20242508</v>
+      </c>
+      <c r="E275" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="F275" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G275" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H275" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I275" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J275" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K275" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L275" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M275" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N275" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O275" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P275" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q275" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R275" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S275" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T275" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="U275" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="V275" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W275" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y275" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="276" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A276" s="4">
+        <v>45620.778527233793</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D276" s="5">
+        <v>20241605</v>
+      </c>
+      <c r="E276" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="F276" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G276" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H276" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I276" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J276" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K276" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L276" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M276" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N276" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O276" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P276" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q276" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R276" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S276" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T276" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U276" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V276" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W276" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y276" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="277" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A277" s="7">
+        <v>45620.783434178244</v>
+      </c>
+      <c r="B277" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="C277" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D277" s="8">
+        <v>20242128</v>
+      </c>
+      <c r="E277" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="F277" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G277" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H277" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I277" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J277" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K277" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L277" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M277" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N277" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O277" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P277" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q277" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R277" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S277" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T277" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U277" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V277" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W277" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y277" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="278" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A278" s="4">
+        <v>45620.786432673616</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D278" s="5">
+        <v>20227022</v>
+      </c>
+      <c r="E278" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="F278" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G278" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H278" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I278" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J278" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K278" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L278" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M278" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N278" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O278" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P278" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q278" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R278" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S278" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="T278" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="U278" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="V278" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W278" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X278" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="279" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A279" s="7">
+        <v>45620.788685567131</v>
+      </c>
+      <c r="B279" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="C279" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D279" s="8">
+        <v>20217015</v>
+      </c>
+      <c r="E279" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="F279" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G279" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H279" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I279" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J279" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K279" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L279" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M279" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N279" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O279" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P279" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q279" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R279" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S279" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T279" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U279" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V279" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W279" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X279" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="280" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A280" s="4">
+        <v>45620.79410777778</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D280" s="5">
+        <v>20244123</v>
+      </c>
+      <c r="E280" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="F280" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G280" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H280" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I280" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J280" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K280" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L280" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M280" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N280" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O280" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P280" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q280" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R280" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S280" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T280" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U280" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V280" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W280" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X280" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="281" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A281" s="7">
+        <v>45620.796900185189</v>
+      </c>
+      <c r="B281" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="C281" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D281" s="8">
+        <v>20248224</v>
+      </c>
+      <c r="E281" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="F281" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G281" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H281" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I281" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J281" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K281" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L281" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M281" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N281" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O281" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P281" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q281" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R281" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S281" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T281" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U281" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V281" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W281" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X281" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="282" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A282" s="4">
+        <v>45620.812423333336</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D282" s="5">
+        <v>20243259</v>
+      </c>
+      <c r="E282" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="F282" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G282" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H282" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I282" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J282" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K282" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L282" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M282" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N282" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O282" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P282" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q282" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R282" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S282" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T282" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U282" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V282" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W282" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y282" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="283" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A283" s="7">
+        <v>45620.816311099537</v>
+      </c>
+      <c r="B283" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="C283" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D283" s="8">
+        <v>20244130</v>
+      </c>
+      <c r="E283" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="F283" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G283" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H283" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I283" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J283" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K283" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L283" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M283" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N283" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O283" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P283" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q283" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R283" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S283" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T283" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U283" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V283" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W283" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X283" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="284" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A284" s="4">
+        <v>45620.824624120374</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D284" s="5">
+        <v>20202834</v>
+      </c>
+      <c r="E284" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="F284" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G284" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H284" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I284" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J284" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K284" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L284" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M284" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N284" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O284" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P284" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q284" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R284" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S284" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T284" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="U284" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V284" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W284" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X284" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="285" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A285" s="7">
+        <v>45620.825546678243</v>
+      </c>
+      <c r="B285" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="C285" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D285" s="8">
+        <v>20241236</v>
+      </c>
+      <c r="E285" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="F285" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G285" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H285" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I285" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J285" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K285" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L285" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M285" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N285" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O285" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P285" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q285" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R285" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S285" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T285" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U285" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="V285" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W285" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y285" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="286" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A286" s="4">
+        <v>45620.839195856483</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D286" s="5">
+        <v>20242332</v>
+      </c>
+      <c r="E286" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="F286" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G286" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H286" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I286" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J286" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K286" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L286" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M286" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N286" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O286" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P286" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q286" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R286" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S286" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T286" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U286" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V286" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W286" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y286" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="287" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A287" s="7">
+        <v>45620.843478240742</v>
+      </c>
+      <c r="B287" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="C287" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="D287" s="8">
+        <v>20245201</v>
+      </c>
+      <c r="E287" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="F287" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G287" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H287" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I287" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J287" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K287" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L287" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M287" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N287" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O287" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P287" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q287" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R287" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S287" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T287" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U287" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V287" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W287" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y287" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="288" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A288" s="4">
+        <v>45620.845630069445</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D288" s="5">
+        <v>20242960</v>
+      </c>
+      <c r="E288" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="F288" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G288" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H288" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I288" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J288" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K288" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L288" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M288" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N288" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O288" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P288" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q288" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R288" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S288" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T288" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U288" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V288" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W288" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y288" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="289" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A289" s="7">
+        <v>45620.854353217597</v>
+      </c>
+      <c r="B289" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="C289" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="D289" s="8">
+        <v>20222514</v>
+      </c>
+      <c r="E289" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="F289" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G289" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H289" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I289" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J289" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K289" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L289" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M289" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N289" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O289" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P289" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q289" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="R289" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S289" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T289" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="U289" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V289" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W289" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X289" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="290" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A290" s="4">
+        <v>45620.857074629632</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D290" s="5">
+        <v>20205188</v>
+      </c>
+      <c r="E290" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="F290" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G290" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H290" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I290" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J290" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K290" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L290" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M290" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N290" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O290" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P290" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q290" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R290" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S290" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T290" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U290" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V290" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W290" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X290" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="291" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A291" s="7">
+        <v>45620.860662245366</v>
+      </c>
+      <c r="B291" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="C291" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D291" s="8">
+        <v>20243612</v>
+      </c>
+      <c r="E291" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="F291" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G291" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H291" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I291" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J291" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K291" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L291" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M291" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N291" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O291" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P291" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q291" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R291" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S291" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T291" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U291" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V291" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W291" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X291" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="292" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A292" s="4">
+        <v>45620.867346921295</v>
+      </c>
+      <c r="B292" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D292" s="5">
+        <v>20191604</v>
+      </c>
+      <c r="E292" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="F292" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G292" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H292" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I292" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J292" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K292" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L292" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M292" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N292" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O292" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P292" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q292" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R292" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S292" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T292" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U292" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V292" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W292" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X292" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="293" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A293" s="7">
+        <v>45620.867945925929</v>
+      </c>
+      <c r="B293" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="C293" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D293" s="8">
+        <v>20241081</v>
+      </c>
+      <c r="E293" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="F293" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G293" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H293" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I293" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J293" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K293" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L293" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M293" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N293" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O293" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P293" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q293" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R293" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S293" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T293" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U293" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V293" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W293" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y293" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="294" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A294" s="4">
+        <v>45620.871708472223</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D294" s="5">
+        <v>20202994</v>
+      </c>
+      <c r="E294" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="F294" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G294" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H294" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I294" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J294" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K294" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L294" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M294" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N294" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O294" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P294" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q294" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R294" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S294" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T294" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U294" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V294" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="W294" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X294" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="295" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A295" s="7">
+        <v>45620.882689328704</v>
+      </c>
+      <c r="B295" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="C295" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="D295" s="8">
+        <v>20172719</v>
+      </c>
+      <c r="E295" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="F295" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G295" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H295" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I295" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J295" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K295" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L295" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M295" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N295" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O295" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P295" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q295" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R295" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S295" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T295" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U295" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="V295" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W295" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y295" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="296" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A296" s="4">
+        <v>45620.886083020829</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D296" s="5">
+        <v>20245117</v>
+      </c>
+      <c r="E296" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="F296" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G296" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H296" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I296" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J296" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K296" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L296" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M296" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N296" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O296" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P296" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q296" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R296" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S296" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T296" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U296" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V296" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W296" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X296" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="297" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A297" s="7">
+        <v>45620.887970034717</v>
+      </c>
+      <c r="B297" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="C297" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D297" s="8">
+        <v>20207065</v>
+      </c>
+      <c r="E297" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="F297" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G297" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H297" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I297" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J297" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K297" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L297" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M297" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N297" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O297" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P297" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q297" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R297" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S297" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T297" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U297" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V297" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W297" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X297" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="298" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A298" s="4">
+        <v>45620.896831307866</v>
+      </c>
+      <c r="B298" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D298" s="5">
+        <v>20241017</v>
+      </c>
+      <c r="E298" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="F298" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G298" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H298" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I298" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J298" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K298" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L298" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M298" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N298" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O298" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P298" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q298" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R298" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S298" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T298" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U298" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V298" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W298" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X298" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="299" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A299" s="7">
+        <v>45620.898282141206</v>
+      </c>
+      <c r="B299" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="C299" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D299" s="8">
+        <v>20243606</v>
+      </c>
+      <c r="E299" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="F299" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G299" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H299" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I299" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J299" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K299" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L299" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M299" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N299" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O299" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P299" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q299" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R299" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S299" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T299" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U299" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V299" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W299" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X299" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="300" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A300" s="4">
+        <v>45620.898656666672</v>
+      </c>
+      <c r="B300" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="C300" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D300" s="5">
+        <v>20203006</v>
+      </c>
+      <c r="E300" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="F300" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G300" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H300" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I300" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J300" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K300" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L300" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M300" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N300" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O300" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P300" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q300" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R300" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S300" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T300" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U300" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V300" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W300" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y300" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="301" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A301" s="7">
+        <v>45620.90779607639</v>
+      </c>
+      <c r="B301" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="C301" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="D301" s="8">
+        <v>20192634</v>
+      </c>
+      <c r="E301" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="F301" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G301" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H301" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I301" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J301" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K301" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L301" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M301" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N301" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O301" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P301" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q301" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R301" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="S301" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T301" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U301" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="V301" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W301" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X301" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="302" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A302" s="4">
+        <v>45620.909197800924</v>
+      </c>
+      <c r="B302" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="D302" s="5">
+        <v>20212609</v>
+      </c>
+      <c r="E302" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="F302" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G302" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H302" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I302" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J302" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K302" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L302" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M302" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N302" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O302" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P302" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q302" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R302" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S302" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T302" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U302" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V302" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W302" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X302" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="303" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A303" s="7">
+        <v>45620.909885057874</v>
+      </c>
+      <c r="B303" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="C303" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D303" s="8">
+        <v>20243227</v>
+      </c>
+      <c r="E303" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="F303" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G303" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H303" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I303" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J303" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K303" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L303" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M303" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N303" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O303" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P303" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q303" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R303" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S303" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T303" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U303" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V303" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W303" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X303" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="304" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A304" s="4">
+        <v>45620.910788460649</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D304" s="5">
+        <v>20242751</v>
+      </c>
+      <c r="E304" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="F304" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G304" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H304" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I304" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J304" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K304" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L304" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M304" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N304" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O304" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P304" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q304" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R304" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S304" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T304" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U304" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V304" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W304" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X304" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="305" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A305" s="7">
+        <v>45620.916386273151</v>
+      </c>
+      <c r="B305" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="C305" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D305" s="8">
+        <v>20192717</v>
+      </c>
+      <c r="E305" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="F305" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G305" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H305" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I305" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J305" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K305" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L305" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M305" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N305" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O305" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P305" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q305" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="R305" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="S305" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T305" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="U305" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="V305" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W305" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y305" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="306" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A306" s="4">
+        <v>45620.917007627315</v>
+      </c>
+      <c r="B306" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="C306" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="D306" s="5">
+        <v>20203026</v>
+      </c>
+      <c r="E306" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="F306" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G306" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H306" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I306" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J306" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K306" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L306" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M306" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N306" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O306" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P306" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q306" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R306" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S306" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T306" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U306" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V306" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W306" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y306" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="307" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A307" s="7">
+        <v>45620.926536979168</v>
+      </c>
+      <c r="B307" s="8" t="s">
+        <v>737</v>
+      </c>
+      <c r="C307" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D307" s="8">
+        <v>20242336</v>
+      </c>
+      <c r="E307" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="F307" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G307" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H307" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I307" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J307" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K307" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L307" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M307" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N307" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O307" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P307" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q307" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R307" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S307" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T307" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U307" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V307" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W307" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X307" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="308" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A308" s="4">
+        <v>45620.932931481482</v>
+      </c>
+      <c r="B308" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="C308" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D308" s="5">
+        <v>20216716</v>
+      </c>
+      <c r="E308" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="F308" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G308" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H308" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I308" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J308" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K308" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L308" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M308" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N308" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O308" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P308" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q308" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R308" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S308" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T308" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U308" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V308" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W308" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y308" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="309" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A309" s="7">
+        <v>45620.940859814815</v>
+      </c>
+      <c r="B309" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="C309" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="D309" s="8">
+        <v>20232938</v>
+      </c>
+      <c r="E309" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="F309" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G309" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H309" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I309" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J309" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K309" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L309" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M309" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N309" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O309" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P309" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q309" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R309" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S309" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T309" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U309" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V309" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W309" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y309" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="310" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A310" s="4">
+        <v>45620.957780671291</v>
+      </c>
+      <c r="B310" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="C310" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="D310" s="5">
+        <v>20217152</v>
+      </c>
+      <c r="E310" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="F310" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G310" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H310" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I310" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J310" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K310" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L310" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M310" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N310" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O310" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P310" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q310" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R310" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S310" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T310" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U310" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V310" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W310" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y310" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="311" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A311" s="7">
+        <v>45620.966553541672</v>
+      </c>
+      <c r="B311" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="C311" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="D311" s="8">
+        <v>20242618</v>
+      </c>
+      <c r="E311" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="F311" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G311" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H311" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I311" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J311" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K311" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L311" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M311" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N311" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O311" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P311" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q311" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R311" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S311" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="T311" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="U311" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="V311" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W311" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X311" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="312" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A312" s="14">
+        <v>45620.977481875001</v>
+      </c>
+      <c r="B312" s="15" t="s">
+        <v>748</v>
+      </c>
+      <c r="C312" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D312" s="15">
+        <v>20213533</v>
+      </c>
+      <c r="E312" s="15" t="s">
+        <v>749</v>
+      </c>
+      <c r="F312" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G312" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H312" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I312" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J312" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K312" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L312" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="M312" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N312" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="O312" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="P312" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q312" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="R312" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="S312" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="T312" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="U312" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="V312" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="W312" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="X312" s="20"/>
+      <c r="Y312" s="16" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz241118.xlsx
+++ b/R/data/quiz241118.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95F2F9E-C784-1D49-B808-357AF6B46A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CCBC89-3595-EA4C-93F0-E277B95BADC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47360" yWindow="1360" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6868" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7484" uniqueCount="808">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2271,6 +2271,180 @@
   </si>
   <si>
     <t>임동환</t>
+  </si>
+  <si>
+    <t>kmhhth5@gmail.com</t>
+  </si>
+  <si>
+    <t>최진호</t>
+  </si>
+  <si>
+    <t>wizkids0418@naver.com</t>
+  </si>
+  <si>
+    <t>박혜인</t>
+  </si>
+  <si>
+    <t>skyflight0656@gmail.com</t>
+  </si>
+  <si>
+    <t>한충서</t>
+  </si>
+  <si>
+    <t>050624alex@gmail.com</t>
+  </si>
+  <si>
+    <t>이승현</t>
+  </si>
+  <si>
+    <t>4262cyj@naver.com</t>
+  </si>
+  <si>
+    <t>최윤진</t>
+  </si>
+  <si>
+    <t>ssw805525@naver.com</t>
+  </si>
+  <si>
+    <t>박찬</t>
+  </si>
+  <si>
+    <t>yeongjus6552@gmail.com</t>
+  </si>
+  <si>
+    <t>서영주</t>
+  </si>
+  <si>
+    <t>dawn2368@gmail.com</t>
+  </si>
+  <si>
+    <t>허다운</t>
+  </si>
+  <si>
+    <t>changho0216@gmail.com</t>
+  </si>
+  <si>
+    <t>이창호</t>
+  </si>
+  <si>
+    <t>lucy011705@naver.com</t>
+  </si>
+  <si>
+    <t>이민정</t>
+  </si>
+  <si>
+    <t>jyoon2233@naver.com</t>
+  </si>
+  <si>
+    <t>신정윤</t>
+  </si>
+  <si>
+    <t>haeunlife@naver.com</t>
+  </si>
+  <si>
+    <t>오하은</t>
+  </si>
+  <si>
+    <t>skyhaneul0910@naver.com</t>
+  </si>
+  <si>
+    <t>권하늘</t>
+  </si>
+  <si>
+    <t>rhkddyd234@naver.com</t>
+  </si>
+  <si>
+    <t>이광용</t>
+  </si>
+  <si>
+    <t>eojeongmin146@gmail.com</t>
+  </si>
+  <si>
+    <t>어정민</t>
+  </si>
+  <si>
+    <t>mt1661@naver.com</t>
+  </si>
+  <si>
+    <t>콘탠츠IT</t>
+  </si>
+  <si>
+    <t>정성민</t>
+  </si>
+  <si>
+    <t>ksy91637@gmail.com</t>
+  </si>
+  <si>
+    <t>김성열</t>
+  </si>
+  <si>
+    <t>06kongkongsoon@gmail.com</t>
+  </si>
+  <si>
+    <t>이서연</t>
+  </si>
+  <si>
+    <t>chetbaker22@naver.com</t>
+  </si>
+  <si>
+    <t>철학전공</t>
+  </si>
+  <si>
+    <t>김채원</t>
+  </si>
+  <si>
+    <t>leyy2k@naver.com</t>
+  </si>
+  <si>
+    <t>김대현</t>
+  </si>
+  <si>
+    <t>hizero0223@naver.com</t>
+  </si>
+  <si>
+    <t>조하영</t>
+  </si>
+  <si>
+    <t>jsk991012@naver.com</t>
+  </si>
+  <si>
+    <t>김준서</t>
+  </si>
+  <si>
+    <t>cindy_lol@naver.com</t>
+  </si>
+  <si>
+    <t>권한별</t>
+  </si>
+  <si>
+    <t>leeeunbi0717@naver.com</t>
+  </si>
+  <si>
+    <t>이은비</t>
+  </si>
+  <si>
+    <t>qotnqls1126@naver.com</t>
+  </si>
+  <si>
+    <t>배수빈</t>
+  </si>
+  <si>
+    <t>cgb01045647472@gmail.com</t>
+  </si>
+  <si>
+    <t>최기백</t>
+  </si>
+  <si>
+    <t>seokhoo1@naver.com</t>
+  </si>
+  <si>
+    <t>박석호</t>
+  </si>
+  <si>
+    <t>silpy2000@icloud.com</t>
+  </si>
+  <si>
+    <t>이윤건</t>
   </si>
 </sst>
 </file>
@@ -2681,7 +2855,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:Y312" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:Y340" headerRowCount="0">
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
@@ -2919,11 +3093,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y312"/>
+  <dimension ref="A1:Y340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E318" sqref="E318"/>
+      <pane ySplit="1" topLeftCell="A290" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C344" sqref="C344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -26040,8 +26214,2080 @@
       <c r="W312" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="X312" s="20"/>
       <c r="Y312" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="313" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A313" s="7">
+        <v>45620.986435891202</v>
+      </c>
+      <c r="B313" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="C313" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D313" s="8">
+        <v>20244150</v>
+      </c>
+      <c r="E313" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="F313" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G313" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H313" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I313" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J313" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K313" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L313" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M313" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N313" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O313" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P313" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q313" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R313" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="S313" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T313" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U313" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="V313" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W313" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y313" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="314" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A314" s="4">
+        <v>45620.987624085647</v>
+      </c>
+      <c r="B314" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="C314" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D314" s="5">
+        <v>20242327</v>
+      </c>
+      <c r="E314" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="F314" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G314" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H314" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I314" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J314" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K314" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L314" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M314" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N314" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O314" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P314" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q314" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R314" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S314" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T314" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U314" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V314" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W314" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y314" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="315" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A315" s="7">
+        <v>45620.99592961806</v>
+      </c>
+      <c r="B315" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="C315" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D315" s="8">
+        <v>20215269</v>
+      </c>
+      <c r="E315" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="F315" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G315" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H315" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I315" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J315" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K315" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L315" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M315" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N315" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O315" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P315" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q315" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R315" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S315" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T315" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U315" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V315" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W315" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X315" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="316" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A316" s="4">
+        <v>45621.087949942128</v>
+      </c>
+      <c r="B316" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="C316" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D316" s="5">
+        <v>20245224</v>
+      </c>
+      <c r="E316" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="F316" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G316" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H316" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I316" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J316" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K316" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L316" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M316" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N316" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O316" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P316" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q316" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R316" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S316" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T316" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U316" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V316" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W316" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y316" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="317" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A317" s="7">
+        <v>45621.368536192131</v>
+      </c>
+      <c r="B317" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="C317" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D317" s="8">
+        <v>20243048</v>
+      </c>
+      <c r="E317" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="F317" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G317" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H317" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I317" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J317" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K317" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L317" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M317" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N317" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O317" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P317" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q317" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R317" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S317" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T317" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U317" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V317" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W317" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y317" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="318" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A318" s="4">
+        <v>45621.565683321758</v>
+      </c>
+      <c r="B318" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D318" s="5">
+        <v>20204123</v>
+      </c>
+      <c r="E318" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="F318" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G318" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H318" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I318" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J318" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K318" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L318" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M318" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N318" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O318" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P318" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q318" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R318" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S318" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T318" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U318" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V318" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W318" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y318" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="319" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A319" s="7">
+        <v>45621.571728912037</v>
+      </c>
+      <c r="B319" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="C319" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D319" s="8">
+        <v>20242973</v>
+      </c>
+      <c r="E319" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="F319" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G319" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H319" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I319" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J319" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K319" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L319" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M319" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N319" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O319" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P319" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q319" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R319" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S319" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T319" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U319" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="V319" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W319" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y319" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="320" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A320" s="4">
+        <v>45621.625230196762</v>
+      </c>
+      <c r="B320" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="C320" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D320" s="5">
+        <v>20197126</v>
+      </c>
+      <c r="E320" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="F320" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G320" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H320" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I320" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J320" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K320" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L320" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M320" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N320" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O320" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P320" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q320" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R320" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S320" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T320" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U320" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V320" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W320" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X320" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="321" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A321" s="7">
+        <v>45621.645076967594</v>
+      </c>
+      <c r="B321" s="8" t="s">
+        <v>766</v>
+      </c>
+      <c r="C321" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D321" s="8">
+        <v>20243941</v>
+      </c>
+      <c r="E321" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="F321" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G321" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H321" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I321" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J321" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K321" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L321" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M321" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N321" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O321" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P321" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q321" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R321" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="S321" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T321" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U321" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="V321" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W321" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X321" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="322" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A322" s="4">
+        <v>45621.649335798611</v>
+      </c>
+      <c r="B322" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="C322" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D322" s="5">
+        <v>20242997</v>
+      </c>
+      <c r="E322" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="F322" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G322" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H322" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I322" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J322" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K322" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L322" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M322" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N322" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O322" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P322" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q322" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R322" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S322" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T322" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U322" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V322" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W322" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y322" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="323" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A323" s="7">
+        <v>45621.669061018518</v>
+      </c>
+      <c r="B323" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="C323" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D323" s="8">
+        <v>20245190</v>
+      </c>
+      <c r="E323" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="F323" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G323" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H323" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I323" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J323" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K323" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L323" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M323" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N323" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O323" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P323" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q323" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R323" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S323" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T323" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="U323" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="V323" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W323" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X323" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="324" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A324" s="4">
+        <v>45621.68768101852</v>
+      </c>
+      <c r="B324" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="C324" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="D324" s="5">
+        <v>20242624</v>
+      </c>
+      <c r="E324" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="F324" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G324" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H324" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I324" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J324" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K324" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L324" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M324" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N324" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O324" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P324" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q324" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R324" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S324" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T324" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U324" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V324" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W324" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y324" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="325" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A325" s="12">
+        <v>45621.762388796298</v>
+      </c>
+      <c r="B325" s="13" t="s">
+        <v>774</v>
+      </c>
+      <c r="C325" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D325" s="13">
+        <v>20243803</v>
+      </c>
+      <c r="E325" s="13" t="s">
+        <v>775</v>
+      </c>
+      <c r="F325" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G325" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H325" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I325" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J325" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K325" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L325" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M325" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N325" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O325" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="P325" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q325" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="R325" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="S325" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="T325" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="U325" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="V325" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="W325" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y325" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="326" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A326" s="4">
+        <v>45621.826879803237</v>
+      </c>
+      <c r="B326" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="C326" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D326" s="5">
+        <v>20193420</v>
+      </c>
+      <c r="E326" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="F326" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G326" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H326" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I326" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J326" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K326" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L326" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M326" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N326" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O326" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P326" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q326" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R326" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S326" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T326" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U326" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V326" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W326" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y326" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="327" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A327" s="7">
+        <v>45621.849245069447</v>
+      </c>
+      <c r="B327" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="C327" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D327" s="8">
+        <v>20242725</v>
+      </c>
+      <c r="E327" s="8" t="s">
+        <v>779</v>
+      </c>
+      <c r="F327" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G327" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H327" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I327" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J327" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K327" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L327" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M327" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N327" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O327" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P327" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q327" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R327" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S327" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T327" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U327" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V327" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W327" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X327" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="328" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A328" s="4">
+        <v>45621.869266111113</v>
+      </c>
+      <c r="B328" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="C328" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="D328" s="5">
+        <v>20215239</v>
+      </c>
+      <c r="E328" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="F328" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G328" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H328" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I328" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J328" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K328" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L328" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M328" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N328" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O328" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P328" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q328" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R328" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S328" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T328" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U328" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V328" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W328" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y328" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="329" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A329" s="7">
+        <v>45621.894554548606</v>
+      </c>
+      <c r="B329" s="8" t="s">
+        <v>783</v>
+      </c>
+      <c r="C329" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="D329" s="8">
+        <v>20205139</v>
+      </c>
+      <c r="E329" s="8" t="s">
+        <v>784</v>
+      </c>
+      <c r="F329" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G329" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H329" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I329" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J329" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K329" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L329" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M329" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N329" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O329" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P329" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q329" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R329" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S329" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T329" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U329" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V329" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W329" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y329" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="330" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A330" s="4">
+        <v>45621.963142465276</v>
+      </c>
+      <c r="B330" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="C330" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D330" s="5">
+        <v>20242732</v>
+      </c>
+      <c r="E330" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="F330" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G330" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H330" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I330" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J330" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K330" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L330" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M330" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N330" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O330" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P330" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q330" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R330" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S330" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T330" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U330" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V330" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W330" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y330" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="331" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A331" s="7">
+        <v>45622.39204233796</v>
+      </c>
+      <c r="B331" s="8" t="s">
+        <v>787</v>
+      </c>
+      <c r="C331" s="8" t="s">
+        <v>788</v>
+      </c>
+      <c r="D331" s="8">
+        <v>20201031</v>
+      </c>
+      <c r="E331" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="F331" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="G331" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H331" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I331" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J331" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K331" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L331" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M331" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N331" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O331" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P331" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q331" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R331" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="S331" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T331" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U331" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="V331" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W331" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y331" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="332" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A332" s="4">
+        <v>45622.569994293983</v>
+      </c>
+      <c r="B332" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="C332" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D332" s="5">
+        <v>20215115</v>
+      </c>
+      <c r="E332" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="F332" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G332" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H332" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I332" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J332" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K332" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L332" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M332" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N332" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O332" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P332" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q332" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R332" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S332" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T332" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U332" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V332" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W332" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X332" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="333" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A333" s="7">
+        <v>45622.57963954861</v>
+      </c>
+      <c r="B333" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="C333" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D333" s="8">
+        <v>20243038</v>
+      </c>
+      <c r="E333" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="F333" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G333" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H333" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I333" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J333" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K333" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L333" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M333" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N333" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O333" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P333" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q333" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R333" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S333" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T333" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U333" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V333" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W333" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X333" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="334" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A334" s="4">
+        <v>45622.641589780091</v>
+      </c>
+      <c r="B334" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="C334" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D334" s="5">
+        <v>20182519</v>
+      </c>
+      <c r="E334" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="F334" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G334" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H334" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I334" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J334" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K334" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L334" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M334" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N334" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O334" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P334" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q334" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R334" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S334" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T334" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U334" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V334" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W334" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X334" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="335" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A335" s="12">
+        <v>45622.675539097225</v>
+      </c>
+      <c r="B335" s="13" t="s">
+        <v>796</v>
+      </c>
+      <c r="C335" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="D335" s="13">
+        <v>20201007</v>
+      </c>
+      <c r="E335" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="F335" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G335" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H335" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I335" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J335" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K335" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L335" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M335" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N335" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O335" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="P335" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q335" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="R335" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="S335" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="T335" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="U335" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="V335" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="W335" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y335" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="336" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A336" s="4">
+        <v>45622.687583333332</v>
+      </c>
+      <c r="B336" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="C336" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D336" s="5">
+        <v>20242340</v>
+      </c>
+      <c r="E336" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="F336" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G336" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H336" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I336" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J336" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K336" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L336" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M336" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N336" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O336" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P336" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q336" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R336" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S336" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T336" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U336" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V336" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W336" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X336" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="337" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A337" s="7">
+        <v>45622.697904421293</v>
+      </c>
+      <c r="B337" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="C337" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D337" s="8">
+        <v>20203820</v>
+      </c>
+      <c r="E337" s="8" t="s">
+        <v>801</v>
+      </c>
+      <c r="F337" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G337" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H337" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I337" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J337" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K337" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L337" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M337" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N337" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O337" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P337" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q337" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R337" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S337" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T337" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U337" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="V337" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W337" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y337" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="338" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A338" s="4">
+        <v>45622.802735277779</v>
+      </c>
+      <c r="B338" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="C338" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D338" s="5">
+        <v>20193003</v>
+      </c>
+      <c r="E338" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="F338" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G338" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H338" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I338" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J338" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K338" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L338" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M338" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N338" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O338" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P338" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q338" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R338" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S338" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="T338" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U338" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V338" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="W338" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y338" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="339" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A339" s="7">
+        <v>45622.899888425927</v>
+      </c>
+      <c r="B339" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="C339" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D339" s="8">
+        <v>20241038</v>
+      </c>
+      <c r="E339" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="F339" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G339" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H339" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I339" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J339" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K339" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L339" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M339" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N339" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O339" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P339" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q339" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="R339" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S339" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="T339" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="U339" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V339" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W339" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X339" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="340" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A340" s="14">
+        <v>45622.950526597226</v>
+      </c>
+      <c r="B340" s="15" t="s">
+        <v>806</v>
+      </c>
+      <c r="C340" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D340" s="15">
+        <v>20216628</v>
+      </c>
+      <c r="E340" s="15" t="s">
+        <v>807</v>
+      </c>
+      <c r="F340" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G340" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H340" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I340" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J340" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K340" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L340" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M340" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N340" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="O340" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="P340" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q340" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="R340" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="S340" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="T340" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="U340" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="V340" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="W340" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="X340" s="20"/>
+      <c r="Y340" s="16" t="s">
         <v>78</v>
       </c>
     </row>

--- a/R/data/quiz241118.xlsx
+++ b/R/data/quiz241118.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CCBC89-3595-EA4C-93F0-E277B95BADC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F32242-840B-4F47-9C7D-3CAF0292EDF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47360" yWindow="1360" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7484" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7902" uniqueCount="850">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2445,6 +2445,132 @@
   </si>
   <si>
     <t>이윤건</t>
+  </si>
+  <si>
+    <t>imhyeongu00@gmail.com</t>
+  </si>
+  <si>
+    <t>언론방송융합미디어전공</t>
+  </si>
+  <si>
+    <t>임현구</t>
+  </si>
+  <si>
+    <t>jkmy2516@naver.com</t>
+  </si>
+  <si>
+    <t>장석빈</t>
+  </si>
+  <si>
+    <t>hyerujys2005@naver.com</t>
+  </si>
+  <si>
+    <t>정윤수</t>
+  </si>
+  <si>
+    <t>kjins1234@naver.com</t>
+  </si>
+  <si>
+    <t>김진수</t>
+  </si>
+  <si>
+    <t>sunshade132@gmail.com</t>
+  </si>
+  <si>
+    <t>박기택</t>
+  </si>
+  <si>
+    <t>ginggim0904@gmail.com</t>
+  </si>
+  <si>
+    <t>김무극</t>
+  </si>
+  <si>
+    <t>hihi2679@gmail.com</t>
+  </si>
+  <si>
+    <t>박서현</t>
+  </si>
+  <si>
+    <t>yeonjej51@gmail.com</t>
+  </si>
+  <si>
+    <t>정연제</t>
+  </si>
+  <si>
+    <t>fred0203@naver.com</t>
+  </si>
+  <si>
+    <t>언어청각학부 청각학전공</t>
+  </si>
+  <si>
+    <t>이강준</t>
+  </si>
+  <si>
+    <t>ddoyeong0509@gmail.com</t>
+  </si>
+  <si>
+    <t>윤소영</t>
+  </si>
+  <si>
+    <t>wlduddember6@gmail.com</t>
+  </si>
+  <si>
+    <t>이지영</t>
+  </si>
+  <si>
+    <t>ghkdxo2003@gmail.com</t>
+  </si>
+  <si>
+    <t>황이준</t>
+  </si>
+  <si>
+    <t>bevery2685@gmail.com</t>
+  </si>
+  <si>
+    <t>반도체 디스플레이 스쿨</t>
+  </si>
+  <si>
+    <t>조영태</t>
+  </si>
+  <si>
+    <t>jangsinhyeog6@gmail.com</t>
+  </si>
+  <si>
+    <t>장신혁</t>
+  </si>
+  <si>
+    <t>sbysooo@naver.com</t>
+  </si>
+  <si>
+    <t>신윤수</t>
+  </si>
+  <si>
+    <t>haksun0217@naver.com</t>
+  </si>
+  <si>
+    <t>김학선</t>
+  </si>
+  <si>
+    <t>kimteawan347@gmail.com</t>
+  </si>
+  <si>
+    <t>김태완</t>
+  </si>
+  <si>
+    <t>sejun4@naver.com</t>
+  </si>
+  <si>
+    <t>경영/청각</t>
+  </si>
+  <si>
+    <t>박세준</t>
+  </si>
+  <si>
+    <t>leejiheoen450@naver.com</t>
+  </si>
+  <si>
+    <t>이지현</t>
   </si>
 </sst>
 </file>
@@ -2855,7 +2981,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:Y340" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:Y359" headerRowCount="0">
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
@@ -3093,11 +3219,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y340"/>
+  <dimension ref="A1:Y359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A290" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C344" sqref="C344"/>
+      <pane ySplit="1" topLeftCell="A317" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D366" sqref="D366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -28291,6 +28417,1414 @@
         <v>78</v>
       </c>
     </row>
+    <row r="341" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A341" s="7">
+        <v>45622.955596608794</v>
+      </c>
+      <c r="B341" s="8" t="s">
+        <v>808</v>
+      </c>
+      <c r="C341" s="8" t="s">
+        <v>809</v>
+      </c>
+      <c r="D341" s="8">
+        <v>20192575</v>
+      </c>
+      <c r="E341" s="8" t="s">
+        <v>810</v>
+      </c>
+      <c r="F341" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G341" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H341" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I341" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J341" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K341" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L341" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M341" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N341" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O341" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P341" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q341" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R341" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S341" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T341" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U341" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V341" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W341" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X341" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="342" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A342" s="4">
+        <v>45623.160101145833</v>
+      </c>
+      <c r="B342" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="C342" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D342" s="5">
+        <v>20191084</v>
+      </c>
+      <c r="E342" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="F342" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G342" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H342" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I342" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J342" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K342" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L342" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M342" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N342" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O342" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P342" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q342" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R342" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S342" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T342" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U342" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V342" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W342" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X342" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="343" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A343" s="7">
+        <v>45623.397291840272</v>
+      </c>
+      <c r="B343" s="8" t="s">
+        <v>813</v>
+      </c>
+      <c r="C343" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D343" s="8">
+        <v>20242575</v>
+      </c>
+      <c r="E343" s="8" t="s">
+        <v>814</v>
+      </c>
+      <c r="F343" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G343" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H343" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I343" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J343" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K343" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L343" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M343" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N343" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O343" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P343" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q343" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R343" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S343" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T343" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U343" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="V343" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W343" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X343" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="344" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A344" s="4">
+        <v>45623.478835879629</v>
+      </c>
+      <c r="B344" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="C344" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D344" s="5">
+        <v>20182845</v>
+      </c>
+      <c r="E344" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="F344" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G344" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H344" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I344" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J344" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K344" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L344" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M344" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N344" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O344" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P344" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q344" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R344" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S344" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="T344" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="U344" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="V344" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="W344" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X344" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="345" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A345" s="7">
+        <v>45623.506450787041</v>
+      </c>
+      <c r="B345" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="C345" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D345" s="8">
+        <v>20222526</v>
+      </c>
+      <c r="E345" s="8" t="s">
+        <v>818</v>
+      </c>
+      <c r="F345" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G345" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H345" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I345" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J345" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K345" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L345" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M345" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N345" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O345" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P345" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q345" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R345" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S345" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T345" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U345" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="V345" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W345" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X345" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="346" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A346" s="4">
+        <v>45623.567552326393</v>
+      </c>
+      <c r="B346" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="C346" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D346" s="5">
+        <v>20234110</v>
+      </c>
+      <c r="E346" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="F346" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G346" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H346" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I346" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J346" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K346" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L346" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M346" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N346" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O346" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P346" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q346" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R346" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S346" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T346" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U346" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V346" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W346" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X346" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="347" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A347" s="7">
+        <v>45623.607133761572</v>
+      </c>
+      <c r="B347" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="C347" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D347" s="8">
+        <v>20243815</v>
+      </c>
+      <c r="E347" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="F347" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G347" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H347" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I347" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J347" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K347" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L347" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M347" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N347" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O347" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P347" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q347" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R347" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S347" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T347" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U347" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V347" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W347" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X347" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="348" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A348" s="4">
+        <v>45623.610833020837</v>
+      </c>
+      <c r="B348" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="C348" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D348" s="5">
+        <v>20241234</v>
+      </c>
+      <c r="E348" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="F348" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G348" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H348" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I348" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J348" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K348" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L348" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M348" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N348" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O348" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P348" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q348" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R348" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S348" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T348" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U348" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V348" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="W348" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y348" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="349" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A349" s="7">
+        <v>45623.636207974538</v>
+      </c>
+      <c r="B349" s="8" t="s">
+        <v>825</v>
+      </c>
+      <c r="C349" s="8" t="s">
+        <v>826</v>
+      </c>
+      <c r="D349" s="8">
+        <v>20227091</v>
+      </c>
+      <c r="E349" s="8" t="s">
+        <v>827</v>
+      </c>
+      <c r="F349" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G349" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H349" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I349" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J349" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K349" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L349" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M349" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N349" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O349" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P349" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q349" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R349" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S349" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T349" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U349" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V349" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W349" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X349" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="350" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A350" s="14">
+        <v>45623.677639351852</v>
+      </c>
+      <c r="B350" s="15" t="s">
+        <v>828</v>
+      </c>
+      <c r="C350" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="D350" s="15">
+        <v>20242424</v>
+      </c>
+      <c r="E350" s="15" t="s">
+        <v>829</v>
+      </c>
+      <c r="F350" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G350" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H350" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I350" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J350" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K350" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L350" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M350" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N350" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="O350" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="P350" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q350" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="R350" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="S350" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="T350" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="U350" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="V350" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="W350" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="X350" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y350" s="20"/>
+    </row>
+    <row r="351" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A351" s="7">
+        <v>45623.759236655096</v>
+      </c>
+      <c r="B351" s="8" t="s">
+        <v>830</v>
+      </c>
+      <c r="C351" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D351" s="8">
+        <v>20246639</v>
+      </c>
+      <c r="E351" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="F351" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G351" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H351" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I351" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J351" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K351" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L351" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M351" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N351" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O351" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P351" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q351" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R351" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S351" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T351" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U351" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V351" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W351" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y351" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="352" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A352" s="4">
+        <v>45623.794179953707</v>
+      </c>
+      <c r="B352" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="C352" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="D352" s="5">
+        <v>20231733</v>
+      </c>
+      <c r="E352" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="F352" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G352" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H352" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I352" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J352" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K352" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L352" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M352" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N352" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O352" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P352" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q352" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R352" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S352" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T352" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U352" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V352" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W352" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y352" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="353" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A353" s="7">
+        <v>45623.813141550927</v>
+      </c>
+      <c r="B353" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="C353" s="8" t="s">
+        <v>835</v>
+      </c>
+      <c r="D353" s="8">
+        <v>20243354</v>
+      </c>
+      <c r="E353" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="F353" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G353" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H353" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I353" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J353" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K353" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L353" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M353" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N353" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O353" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P353" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q353" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R353" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S353" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T353" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U353" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V353" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W353" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y353" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="354" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A354" s="4">
+        <v>45623.847634027778</v>
+      </c>
+      <c r="B354" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="C354" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D354" s="5">
+        <v>20246768</v>
+      </c>
+      <c r="E354" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="F354" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G354" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H354" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I354" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J354" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K354" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L354" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M354" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N354" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O354" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P354" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q354" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R354" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S354" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T354" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U354" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V354" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W354" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y354" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="355" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A355" s="7">
+        <v>45623.853352094906</v>
+      </c>
+      <c r="B355" s="8" t="s">
+        <v>839</v>
+      </c>
+      <c r="C355" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D355" s="8">
+        <v>20227155</v>
+      </c>
+      <c r="E355" s="8" t="s">
+        <v>840</v>
+      </c>
+      <c r="F355" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G355" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H355" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I355" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J355" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K355" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L355" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M355" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N355" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O355" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P355" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q355" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="R355" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="S355" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="T355" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="U355" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="V355" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W355" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X355" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="356" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A356" s="4">
+        <v>45623.866803113429</v>
+      </c>
+      <c r="B356" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="C356" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D356" s="5">
+        <v>20243814</v>
+      </c>
+      <c r="E356" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="F356" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G356" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H356" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I356" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J356" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K356" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L356" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M356" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N356" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O356" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P356" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q356" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R356" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="S356" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="T356" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U356" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="V356" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="W356" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X356" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="357" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A357" s="7">
+        <v>45623.903407141202</v>
+      </c>
+      <c r="B357" s="8" t="s">
+        <v>843</v>
+      </c>
+      <c r="C357" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="D357" s="8">
+        <v>20212613</v>
+      </c>
+      <c r="E357" s="8" t="s">
+        <v>844</v>
+      </c>
+      <c r="F357" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G357" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H357" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I357" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J357" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K357" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L357" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M357" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N357" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O357" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P357" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q357" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R357" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S357" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T357" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U357" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V357" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W357" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X357" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="358" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A358" s="4">
+        <v>45623.935040208336</v>
+      </c>
+      <c r="B358" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="C358" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="D358" s="5">
+        <v>20193968</v>
+      </c>
+      <c r="E358" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="F358" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G358" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H358" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I358" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J358" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K358" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L358" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M358" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N358" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O358" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P358" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q358" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R358" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S358" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T358" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U358" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V358" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W358" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X358" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="359" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A359" s="12">
+        <v>45623.951038900464</v>
+      </c>
+      <c r="B359" s="13" t="s">
+        <v>848</v>
+      </c>
+      <c r="C359" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D359" s="13">
+        <v>20242232</v>
+      </c>
+      <c r="E359" s="13" t="s">
+        <v>849</v>
+      </c>
+      <c r="F359" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G359" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H359" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I359" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J359" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K359" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L359" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M359" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N359" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O359" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="P359" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q359" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="R359" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="S359" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="T359" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="U359" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="V359" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="W359" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="X359" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y359" s="20"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/quiz241118.xlsx
+++ b/R/data/quiz241118.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F32242-840B-4F47-9C7D-3CAF0292EDF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7924571-AFB4-6441-8CFD-63F0DCA2AE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47360" yWindow="1360" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7902" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8496" uniqueCount="909">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2571,6 +2571,183 @@
   </si>
   <si>
     <t>이지현</t>
+  </si>
+  <si>
+    <t>eseses0827@naver.com</t>
+  </si>
+  <si>
+    <t>강은서</t>
+  </si>
+  <si>
+    <t>ujs4198@naver.com</t>
+  </si>
+  <si>
+    <t>엄준식</t>
+  </si>
+  <si>
+    <t>abc6518@gmail.com</t>
+  </si>
+  <si>
+    <t>반도체</t>
+  </si>
+  <si>
+    <t>박상준</t>
+  </si>
+  <si>
+    <t>fruitekomi@naver.com</t>
+  </si>
+  <si>
+    <t>김예은</t>
+  </si>
+  <si>
+    <t>harypoter8947@gmail.com</t>
+  </si>
+  <si>
+    <t>김석희</t>
+  </si>
+  <si>
+    <t>leesy470666@gmail.com</t>
+  </si>
+  <si>
+    <t>이수용</t>
+  </si>
+  <si>
+    <t>tngusvhs@gmail.com</t>
+  </si>
+  <si>
+    <t>이수현</t>
+  </si>
+  <si>
+    <t>rhoy3156@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>노원철</t>
+  </si>
+  <si>
+    <t>lsd5741@naver.com</t>
+  </si>
+  <si>
+    <t>이소담</t>
+  </si>
+  <si>
+    <t>xormr1505@naver.com</t>
+  </si>
+  <si>
+    <t>박찬원</t>
+  </si>
+  <si>
+    <t>leejhzzang2005@naver.com</t>
+  </si>
+  <si>
+    <t>이주현</t>
+  </si>
+  <si>
+    <t>kentoku0901@naver.com</t>
+  </si>
+  <si>
+    <t>김헌덕</t>
+  </si>
+  <si>
+    <t>bjw2934@naver.com</t>
+  </si>
+  <si>
+    <t>방정우</t>
+  </si>
+  <si>
+    <t>rachal7449@naver.com</t>
+  </si>
+  <si>
+    <t>최자영</t>
+  </si>
+  <si>
+    <t>lhw2565@gmail.com</t>
+  </si>
+  <si>
+    <t>이혜원</t>
+  </si>
+  <si>
+    <t>jerryterryharry@gmail.com</t>
+  </si>
+  <si>
+    <t>문진영</t>
+  </si>
+  <si>
+    <t>woonsuck0916@naver.com</t>
+  </si>
+  <si>
+    <t>스마트IoT</t>
+  </si>
+  <si>
+    <t>운석현</t>
+  </si>
+  <si>
+    <t>hyj13223@naver.com</t>
+  </si>
+  <si>
+    <t>이현진</t>
+  </si>
+  <si>
+    <t>yeel6945@naver.com</t>
+  </si>
+  <si>
+    <t>이수빈</t>
+  </si>
+  <si>
+    <t>hg2635394@gmail.com</t>
+  </si>
+  <si>
+    <t>철학과</t>
+  </si>
+  <si>
+    <t>김현준</t>
+  </si>
+  <si>
+    <t>coreykang3@naver.com</t>
+  </si>
+  <si>
+    <t>반도체공학</t>
+  </si>
+  <si>
+    <t>강동훈</t>
+  </si>
+  <si>
+    <t>Psj050317@naver.com</t>
+  </si>
+  <si>
+    <t>박서진</t>
+  </si>
+  <si>
+    <t>jh2600646@naver.com</t>
+  </si>
+  <si>
+    <t>데이터사이언스</t>
+  </si>
+  <si>
+    <t>박지훈</t>
+  </si>
+  <si>
+    <t>kjinju0518@naver.com</t>
+  </si>
+  <si>
+    <t>김진주</t>
+  </si>
+  <si>
+    <t>ertyhx3@gmail.com</t>
+  </si>
+  <si>
+    <t>김미소</t>
+  </si>
+  <si>
+    <t>jeuns2003@gmail.com</t>
+  </si>
+  <si>
+    <t>조은서</t>
+  </si>
+  <si>
+    <t>jennydz@naver.com</t>
+  </si>
+  <si>
+    <t>허지수</t>
   </si>
 </sst>
 </file>
@@ -2981,7 +3158,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:Y359" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:Y386" headerRowCount="0">
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
@@ -3219,11 +3396,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y359"/>
+  <dimension ref="A1:Y386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A317" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D366" sqref="D366"/>
+      <pane ySplit="1" topLeftCell="A333" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D390" sqref="D390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -28412,7 +28589,6 @@
       <c r="W340" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="X340" s="20"/>
       <c r="Y340" s="16" t="s">
         <v>78</v>
       </c>
@@ -29156,7 +29332,6 @@
       <c r="X350" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="Y350" s="20"/>
     </row>
     <row r="351" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A351" s="7">
@@ -29823,7 +29998,2005 @@
       <c r="X359" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="Y359" s="20"/>
+    </row>
+    <row r="360" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A360" s="4">
+        <v>45623.964489120372</v>
+      </c>
+      <c r="B360" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="C360" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D360" s="5">
+        <v>20241503</v>
+      </c>
+      <c r="E360" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="F360" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G360" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H360" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I360" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J360" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K360" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L360" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M360" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N360" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O360" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P360" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q360" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R360" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S360" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T360" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U360" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V360" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W360" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X360" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="361" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A361" s="7">
+        <v>45623.985554548606</v>
+      </c>
+      <c r="B361" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="C361" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D361" s="8">
+        <v>20197118</v>
+      </c>
+      <c r="E361" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="F361" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G361" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H361" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I361" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J361" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K361" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L361" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M361" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N361" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O361" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P361" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q361" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R361" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S361" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T361" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U361" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V361" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W361" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y361" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="362" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A362" s="4">
+        <v>45623.988691817125</v>
+      </c>
+      <c r="B362" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="C362" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="D362" s="5">
+        <v>20203322</v>
+      </c>
+      <c r="E362" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="F362" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G362" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H362" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I362" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J362" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K362" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L362" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M362" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N362" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O362" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P362" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q362" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R362" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S362" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T362" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U362" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V362" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W362" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X362" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="363" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A363" s="7">
+        <v>45623.999594490742</v>
+      </c>
+      <c r="B363" s="8" t="s">
+        <v>857</v>
+      </c>
+      <c r="C363" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D363" s="8">
+        <v>20233710</v>
+      </c>
+      <c r="E363" s="8" t="s">
+        <v>858</v>
+      </c>
+      <c r="F363" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G363" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H363" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I363" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J363" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K363" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L363" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M363" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N363" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O363" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P363" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q363" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R363" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S363" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T363" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U363" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V363" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="W363" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y363" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="364" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A364" s="4">
+        <v>45624.031111342592</v>
+      </c>
+      <c r="B364" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="C364" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D364" s="5">
+        <v>20231205</v>
+      </c>
+      <c r="E364" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="F364" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G364" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H364" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I364" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J364" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K364" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L364" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M364" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N364" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O364" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P364" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q364" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R364" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S364" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="T364" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U364" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V364" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W364" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y364" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="365" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A365" s="7">
+        <v>45624.048660231478</v>
+      </c>
+      <c r="B365" s="8" t="s">
+        <v>861</v>
+      </c>
+      <c r="C365" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D365" s="8">
+        <v>20243938</v>
+      </c>
+      <c r="E365" s="8" t="s">
+        <v>862</v>
+      </c>
+      <c r="F365" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G365" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H365" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I365" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J365" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K365" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L365" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M365" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N365" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O365" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P365" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q365" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="R365" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="S365" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T365" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="U365" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V365" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W365" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y365" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="366" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A366" s="4">
+        <v>45624.080815324072</v>
+      </c>
+      <c r="B366" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="C366" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D366" s="5">
+        <v>20243529</v>
+      </c>
+      <c r="E366" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="F366" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G366" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H366" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I366" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J366" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K366" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L366" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M366" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N366" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O366" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P366" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q366" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R366" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S366" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T366" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U366" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V366" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W366" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y366" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="367" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A367" s="7">
+        <v>45624.202772662036</v>
+      </c>
+      <c r="B367" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="C367" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D367" s="8">
+        <v>20202719</v>
+      </c>
+      <c r="E367" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="F367" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G367" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H367" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I367" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J367" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K367" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L367" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M367" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N367" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O367" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P367" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q367" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R367" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S367" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T367" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U367" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="V367" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W367" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X367" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="368" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A368" s="4">
+        <v>45624.458019513884</v>
+      </c>
+      <c r="B368" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="C368" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D368" s="5">
+        <v>20242225</v>
+      </c>
+      <c r="E368" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="F368" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G368" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H368" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I368" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J368" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K368" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L368" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M368" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N368" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O368" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P368" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q368" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R368" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S368" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T368" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U368" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V368" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W368" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y368" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="369" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A369" s="7">
+        <v>45624.528283888889</v>
+      </c>
+      <c r="B369" s="8" t="s">
+        <v>869</v>
+      </c>
+      <c r="C369" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D369" s="8">
+        <v>20205176</v>
+      </c>
+      <c r="E369" s="8" t="s">
+        <v>870</v>
+      </c>
+      <c r="F369" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G369" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H369" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I369" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J369" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K369" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L369" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M369" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N369" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O369" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P369" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q369" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R369" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S369" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T369" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U369" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V369" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W369" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X369" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="370" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A370" s="4">
+        <v>45624.608047789356</v>
+      </c>
+      <c r="B370" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="C370" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D370" s="5">
+        <v>20242342</v>
+      </c>
+      <c r="E370" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="F370" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G370" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H370" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I370" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J370" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K370" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L370" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M370" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N370" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O370" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P370" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q370" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R370" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S370" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T370" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U370" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V370" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W370" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X370" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="371" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A371" s="7">
+        <v>45624.617975451387</v>
+      </c>
+      <c r="B371" s="8" t="s">
+        <v>873</v>
+      </c>
+      <c r="C371" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D371" s="8">
+        <v>20242314</v>
+      </c>
+      <c r="E371" s="8" t="s">
+        <v>874</v>
+      </c>
+      <c r="F371" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G371" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H371" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I371" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J371" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K371" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L371" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M371" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N371" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O371" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P371" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q371" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R371" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S371" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T371" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U371" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V371" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W371" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y371" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="372" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A372" s="4">
+        <v>45624.62836988426</v>
+      </c>
+      <c r="B372" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="C372" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D372" s="5">
+        <v>20205182</v>
+      </c>
+      <c r="E372" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="F372" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G372" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H372" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I372" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J372" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K372" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L372" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M372" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N372" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O372" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P372" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q372" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R372" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S372" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T372" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U372" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V372" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W372" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X372" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="373" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A373" s="7">
+        <v>45624.641825555555</v>
+      </c>
+      <c r="B373" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="C373" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D373" s="8">
+        <v>20242753</v>
+      </c>
+      <c r="E373" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="F373" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G373" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H373" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I373" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J373" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K373" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L373" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M373" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N373" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O373" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P373" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q373" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R373" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S373" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T373" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U373" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V373" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W373" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y373" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="374" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A374" s="4">
+        <v>45624.6600544213</v>
+      </c>
+      <c r="B374" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="C374" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D374" s="5">
+        <v>20242565</v>
+      </c>
+      <c r="E374" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="F374" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G374" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H374" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I374" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J374" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K374" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L374" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M374" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N374" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O374" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P374" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q374" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R374" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S374" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T374" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U374" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V374" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W374" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y374" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="375" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A375" s="7">
+        <v>45624.694352048609</v>
+      </c>
+      <c r="B375" s="8" t="s">
+        <v>881</v>
+      </c>
+      <c r="C375" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D375" s="8">
+        <v>20205162</v>
+      </c>
+      <c r="E375" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="F375" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G375" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H375" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I375" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J375" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K375" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L375" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M375" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N375" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O375" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P375" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q375" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R375" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S375" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T375" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U375" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V375" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W375" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X375" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="376" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A376" s="14">
+        <v>45624.699882986111</v>
+      </c>
+      <c r="B376" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="C376" s="15" t="s">
+        <v>884</v>
+      </c>
+      <c r="D376" s="15">
+        <v>20205206</v>
+      </c>
+      <c r="E376" s="15" t="s">
+        <v>885</v>
+      </c>
+      <c r="F376" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G376" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H376" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I376" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J376" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K376" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L376" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M376" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N376" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="O376" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="P376" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q376" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="R376" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="S376" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="T376" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="U376" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="V376" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="W376" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y376" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="377" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A377" s="7">
+        <v>45624.729818587963</v>
+      </c>
+      <c r="B377" s="8" t="s">
+        <v>886</v>
+      </c>
+      <c r="C377" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D377" s="8">
+        <v>20212432</v>
+      </c>
+      <c r="E377" s="8" t="s">
+        <v>887</v>
+      </c>
+      <c r="F377" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G377" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H377" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I377" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J377" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K377" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L377" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M377" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N377" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O377" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P377" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q377" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R377" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S377" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T377" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U377" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V377" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W377" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X377" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="378" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A378" s="4">
+        <v>45624.739634907412</v>
+      </c>
+      <c r="B378" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="C378" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D378" s="5">
+        <v>20203635</v>
+      </c>
+      <c r="E378" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="F378" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G378" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H378" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I378" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J378" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K378" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L378" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M378" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N378" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O378" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P378" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q378" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R378" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S378" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="T378" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U378" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="V378" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W378" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X378" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="379" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A379" s="7">
+        <v>45624.746843148147</v>
+      </c>
+      <c r="B379" s="8" t="s">
+        <v>890</v>
+      </c>
+      <c r="C379" s="8" t="s">
+        <v>891</v>
+      </c>
+      <c r="D379" s="8">
+        <v>20231033</v>
+      </c>
+      <c r="E379" s="8" t="s">
+        <v>892</v>
+      </c>
+      <c r="F379" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G379" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H379" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I379" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J379" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K379" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L379" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M379" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N379" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O379" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P379" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q379" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R379" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S379" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T379" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U379" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V379" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W379" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X379" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="380" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A380" s="4">
+        <v>45624.850621064819</v>
+      </c>
+      <c r="B380" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="C380" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="D380" s="5">
+        <v>20233301</v>
+      </c>
+      <c r="E380" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="F380" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G380" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H380" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I380" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J380" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K380" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L380" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M380" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N380" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O380" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P380" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q380" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R380" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S380" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T380" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U380" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V380" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W380" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y380" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="381" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A381" s="7">
+        <v>45624.888751388891</v>
+      </c>
+      <c r="B381" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="C381" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D381" s="8">
+        <v>20242323</v>
+      </c>
+      <c r="E381" s="8" t="s">
+        <v>897</v>
+      </c>
+      <c r="F381" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G381" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H381" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I381" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J381" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K381" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L381" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M381" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N381" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O381" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P381" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q381" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R381" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S381" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T381" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U381" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V381" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W381" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X381" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="382" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A382" s="4">
+        <v>45624.890795497689</v>
+      </c>
+      <c r="B382" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C382" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D382" s="5">
+        <v>20213224</v>
+      </c>
+      <c r="E382" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="F382" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G382" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H382" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I382" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J382" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K382" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L382" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M382" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N382" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O382" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P382" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q382" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R382" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S382" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T382" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U382" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V382" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W382" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X382" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="383" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A383" s="7">
+        <v>45624.902646979172</v>
+      </c>
+      <c r="B383" s="8" t="s">
+        <v>901</v>
+      </c>
+      <c r="C383" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D383" s="8">
+        <v>20232937</v>
+      </c>
+      <c r="E383" s="8" t="s">
+        <v>902</v>
+      </c>
+      <c r="F383" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G383" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H383" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I383" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J383" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K383" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L383" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M383" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N383" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O383" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P383" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q383" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R383" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="S383" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T383" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="U383" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="V383" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="W383" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y383" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="384" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A384" s="4">
+        <v>45624.973048217595</v>
+      </c>
+      <c r="B384" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="C384" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="D384" s="5">
+        <v>20242607</v>
+      </c>
+      <c r="E384" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="F384" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G384" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H384" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I384" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J384" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K384" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L384" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M384" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N384" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O384" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P384" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q384" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R384" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="S384" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="T384" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U384" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V384" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W384" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y384" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="385" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A385" s="7">
+        <v>45624.982923715274</v>
+      </c>
+      <c r="B385" s="8" t="s">
+        <v>905</v>
+      </c>
+      <c r="C385" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D385" s="8">
+        <v>20232750</v>
+      </c>
+      <c r="E385" s="8" t="s">
+        <v>906</v>
+      </c>
+      <c r="F385" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G385" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H385" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I385" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J385" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K385" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L385" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M385" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N385" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O385" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P385" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q385" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R385" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S385" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T385" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U385" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V385" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W385" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y385" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="386" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A386" s="14">
+        <v>45624.993993229167</v>
+      </c>
+      <c r="B386" s="15" t="s">
+        <v>907</v>
+      </c>
+      <c r="C386" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D386" s="15">
+        <v>20213543</v>
+      </c>
+      <c r="E386" s="15" t="s">
+        <v>908</v>
+      </c>
+      <c r="F386" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G386" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H386" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I386" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J386" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K386" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L386" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M386" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N386" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="O386" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="P386" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q386" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="R386" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="S386" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="T386" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="U386" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="V386" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="W386" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="X386" s="20"/>
+      <c r="Y386" s="16" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
